--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1353598439924</v>
+        <v>17.66001600617542</v>
       </c>
       <c r="C2">
-        <v>19.61959879923153</v>
+        <v>11.11044976584416</v>
       </c>
       <c r="D2">
-        <v>4.203124636992494</v>
+        <v>4.914147314616963</v>
       </c>
       <c r="E2">
-        <v>30.17814890435417</v>
+        <v>5.354183037828623</v>
       </c>
       <c r="F2">
-        <v>39.55095050114705</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>65.51282594520703</v>
       </c>
       <c r="I2">
-        <v>24.88792984260987</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.790091092941422</v>
       </c>
       <c r="K2">
-        <v>20.2715112116318</v>
+        <v>15.13456816352119</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.06739385137614</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.622036288689</v>
+        <v>16.4431135976294</v>
       </c>
       <c r="C3">
-        <v>18.17345365189934</v>
+        <v>10.26158056048843</v>
       </c>
       <c r="D3">
-        <v>4.20899965333131</v>
+        <v>4.622958933313648</v>
       </c>
       <c r="E3">
-        <v>27.8673316361369</v>
+        <v>5.417318794814291</v>
       </c>
       <c r="F3">
-        <v>37.25606378586855</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>62.22595206683197</v>
       </c>
       <c r="I3">
-        <v>23.82179069489764</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.725443006260336</v>
       </c>
       <c r="K3">
-        <v>18.83886317586341</v>
+        <v>14.00138696801669</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.65127343144293</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.64886762187653</v>
+        <v>15.7464329296269</v>
       </c>
       <c r="C4">
-        <v>17.24648521461129</v>
+        <v>9.720076283486788</v>
       </c>
       <c r="D4">
-        <v>4.216698693923155</v>
+        <v>4.438470507522575</v>
       </c>
       <c r="E4">
-        <v>26.39630173122192</v>
+        <v>5.459202055596228</v>
       </c>
       <c r="F4">
-        <v>35.83083838155245</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>60.1696787005727</v>
       </c>
       <c r="I4">
-        <v>23.17623746775815</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.688152961243743</v>
       </c>
       <c r="K4">
-        <v>17.91895218943598</v>
+        <v>13.34340424164793</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.40461178785802</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.24094056117098</v>
+        <v>15.45897595804359</v>
       </c>
       <c r="C5">
-        <v>16.85859143954211</v>
+        <v>9.494173474254445</v>
       </c>
       <c r="D5">
-        <v>4.220753998369524</v>
+        <v>4.361836228060068</v>
       </c>
       <c r="E5">
-        <v>25.78297530957313</v>
+        <v>5.477041049782525</v>
       </c>
       <c r="F5">
-        <v>35.24615776954712</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>59.32250887183486</v>
       </c>
       <c r="I5">
-        <v>22.9154483332397</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.673534092128361</v>
       </c>
       <c r="K5">
-        <v>17.53367555295234</v>
+        <v>13.11965273563584</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.30636791218324</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17251083628652</v>
+        <v>15.41103592750493</v>
       </c>
       <c r="C6">
-        <v>16.79356004434885</v>
+        <v>9.456343008280527</v>
       </c>
       <c r="D6">
-        <v>4.221479808109621</v>
+        <v>4.349022978589278</v>
       </c>
       <c r="E6">
-        <v>25.68027493928408</v>
+        <v>5.480049438930156</v>
       </c>
       <c r="F6">
-        <v>35.14884549750452</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>59.18129409864196</v>
       </c>
       <c r="I6">
-        <v>22.87228318911006</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.671140731304844</v>
       </c>
       <c r="K6">
-        <v>17.4690645461236</v>
+        <v>13.08241130732078</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.29019351828316</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.64341251063123</v>
+        <v>15.74257028760828</v>
       </c>
       <c r="C7">
-        <v>17.24129544258994</v>
+        <v>9.717051029644535</v>
       </c>
       <c r="D7">
-        <v>4.216749806286023</v>
+        <v>4.437442896093097</v>
       </c>
       <c r="E7">
-        <v>26.38808728309652</v>
+        <v>5.459439531502149</v>
       </c>
       <c r="F7">
-        <v>35.82296856742639</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>60.15829019889151</v>
       </c>
       <c r="I7">
-        <v>23.17271110604489</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.687953504133956</v>
       </c>
       <c r="K7">
-        <v>17.91379869555522</v>
+        <v>13.34039268096365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.40327756031363</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.62250852478928</v>
+        <v>17.2194781005484</v>
       </c>
       <c r="C8">
-        <v>19.12885745760092</v>
+        <v>10.82188282762571</v>
       </c>
       <c r="D8">
-        <v>4.204230164173961</v>
+        <v>4.814911611685576</v>
       </c>
       <c r="E8">
-        <v>29.39172908077477</v>
+        <v>5.37529700387284</v>
       </c>
       <c r="F8">
-        <v>38.76307423745286</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>64.38758472146324</v>
       </c>
       <c r="I8">
-        <v>24.51842617573708</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.767284291020884</v>
       </c>
       <c r="K8">
-        <v>19.78570993568483</v>
+        <v>14.74999208192082</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.92210748484394</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.16951959797254</v>
+        <v>20.2855747754606</v>
       </c>
       <c r="C9">
-        <v>22.53777507481808</v>
+        <v>12.83505748425152</v>
       </c>
       <c r="D9">
-        <v>4.217910400452995</v>
+        <v>5.511543762378016</v>
       </c>
       <c r="E9">
-        <v>34.90722379496687</v>
+        <v>5.23569854125858</v>
       </c>
       <c r="F9">
-        <v>44.40296388265706</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>72.37286479332148</v>
       </c>
       <c r="I9">
-        <v>27.23305607374822</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.943295506299889</v>
       </c>
       <c r="K9">
-        <v>23.15174581779328</v>
+        <v>17.4199295962034</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.19278049635159</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59622249105026</v>
+        <v>22.40326070106958</v>
       </c>
       <c r="C10">
-        <v>24.89192222850217</v>
+        <v>14.23388054058914</v>
       </c>
       <c r="D10">
-        <v>4.260706052559236</v>
+        <v>6.000081362914241</v>
       </c>
       <c r="E10">
-        <v>38.7972703822598</v>
+        <v>5.149721991111012</v>
       </c>
       <c r="F10">
-        <v>48.50773249524648</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>78.05931246606997</v>
       </c>
       <c r="I10">
-        <v>29.28621588421352</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.087242350486902</v>
       </c>
       <c r="K10">
-        <v>25.46311212540552</v>
+        <v>19.25778038418288</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.5684313028437</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.66796886969743</v>
+        <v>23.34182254818312</v>
       </c>
       <c r="C11">
-        <v>25.93803647460469</v>
+        <v>14.85659154602297</v>
       </c>
       <c r="D11">
-        <v>4.289894676108072</v>
+        <v>6.218317305089681</v>
       </c>
       <c r="E11">
-        <v>40.55088900370303</v>
+        <v>5.114514435049617</v>
       </c>
       <c r="F11">
-        <v>50.48477163536299</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>80.61337984287864</v>
       </c>
       <c r="I11">
-        <v>30.23837523164894</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.15648233893982</v>
       </c>
       <c r="K11">
-        <v>26.4862555611414</v>
+        <v>20.0714448943235</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.17669830836913</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.06988003104052</v>
+        <v>23.69413792588656</v>
       </c>
       <c r="C12">
-        <v>26.33142391835828</v>
+        <v>15.09082568390607</v>
       </c>
       <c r="D12">
-        <v>4.302614929151017</v>
+        <v>6.300494086376013</v>
       </c>
       <c r="E12">
-        <v>41.21471032936396</v>
+        <v>5.101774685965277</v>
       </c>
       <c r="F12">
-        <v>51.2323418834399</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>81.57669116138567</v>
       </c>
       <c r="I12">
-        <v>30.60222639623763</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.183299994887221</v>
       </c>
       <c r="K12">
-        <v>26.87032741557801</v>
+        <v>20.37678826463596</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.40484960184837</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.98348376200759</v>
+        <v>23.61838985221009</v>
       </c>
       <c r="C13">
-        <v>26.24680849502245</v>
+        <v>15.04044221258283</v>
       </c>
       <c r="D13">
-        <v>4.299796390811831</v>
+        <v>6.282814476869618</v>
       </c>
       <c r="E13">
-        <v>41.07171672606213</v>
+        <v>5.1044915069156</v>
       </c>
       <c r="F13">
-        <v>51.07136192437228</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>81.36937978519832</v>
       </c>
       <c r="I13">
-        <v>30.52370497908338</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.177496709628343</v>
       </c>
       <c r="K13">
-        <v>26.78774778502967</v>
+        <v>20.31114254475666</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.35580446586499</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.70110875384845</v>
+        <v>23.37086682683034</v>
       </c>
       <c r="C14">
-        <v>25.97045059200522</v>
+        <v>14.87589118878882</v>
       </c>
       <c r="D14">
-        <v>4.290906036495983</v>
+        <v>6.225086625165189</v>
       </c>
       <c r="E14">
-        <v>40.6054931036573</v>
+        <v>5.113454253398992</v>
       </c>
       <c r="F14">
-        <v>50.54628738409925</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>80.69270347261421</v>
       </c>
       <c r="I14">
-        <v>30.26823886641936</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.158676292767025</v>
       </c>
       <c r="K14">
-        <v>26.51791638210531</v>
+        <v>20.09661844084732</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.19551016080551</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52765626782426</v>
+        <v>23.21886383125081</v>
       </c>
       <c r="C15">
-        <v>25.8008419342267</v>
+        <v>14.774906750888</v>
       </c>
       <c r="D15">
-        <v>4.285686432520921</v>
+        <v>6.189669866602058</v>
       </c>
       <c r="E15">
-        <v>40.31995664259939</v>
+        <v>5.119022386970327</v>
       </c>
       <c r="F15">
-        <v>50.22456886971002</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>80.27774734650127</v>
       </c>
       <c r="I15">
-        <v>30.11221082881355</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.14722800125685</v>
       </c>
       <c r="K15">
-        <v>26.35222126429123</v>
+        <v>19.96486953464864</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.09705139182443</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52558983786325</v>
+        <v>22.34146257941114</v>
       </c>
       <c r="C16">
-        <v>24.8231228399436</v>
+        <v>14.19294220926168</v>
       </c>
       <c r="D16">
-        <v>4.259015992275109</v>
+        <v>5.985747565816708</v>
       </c>
       <c r="E16">
-        <v>38.68251109732788</v>
+        <v>5.152103989879953</v>
       </c>
       <c r="F16">
-        <v>48.37829308889228</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>77.8918055120661</v>
       </c>
       <c r="I16">
-        <v>29.22440839736477</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.082797671715346</v>
       </c>
       <c r="K16">
-        <v>25.39573426495349</v>
+        <v>19.20419141907584</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.52835432386427</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90306357009513</v>
+        <v>21.79716161696313</v>
       </c>
       <c r="C17">
-        <v>24.21749927748514</v>
+        <v>13.83269015050567</v>
       </c>
       <c r="D17">
-        <v>4.245320484487541</v>
+        <v>5.859694664080862</v>
       </c>
       <c r="E17">
-        <v>37.67521968148021</v>
+        <v>5.173418898887801</v>
       </c>
       <c r="F17">
-        <v>47.30550182135232</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>76.42023901830045</v>
       </c>
       <c r="I17">
-        <v>28.68483680000396</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.044272188843605</v>
       </c>
       <c r="K17">
-        <v>24.80216453703456</v>
+        <v>18.73210069132962</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.17521004818172</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.54192623465954</v>
+        <v>21.48172842987205</v>
       </c>
       <c r="C18">
-        <v>23.86676913351434</v>
+        <v>13.62417378104631</v>
       </c>
       <c r="D18">
-        <v>4.23833938667884</v>
+        <v>5.786807723768806</v>
       </c>
       <c r="E18">
-        <v>37.0942001906316</v>
+        <v>5.186043937478087</v>
       </c>
       <c r="F18">
-        <v>46.69369273885381</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>75.57068531947334</v>
       </c>
       <c r="I18">
-        <v>28.37614713442995</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.022463087770113</v>
       </c>
       <c r="K18">
-        <v>24.45804506422673</v>
+        <v>18.45842910492676</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.97041860840731</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.41910406360356</v>
+        <v>21.37450909653453</v>
       </c>
       <c r="C19">
-        <v>23.7475850974268</v>
+        <v>13.5533382803504</v>
       </c>
       <c r="D19">
-        <v>4.236122224045181</v>
+        <v>5.762060380834535</v>
       </c>
       <c r="E19">
-        <v>36.89713796212095</v>
+        <v>5.190380425911217</v>
       </c>
       <c r="F19">
-        <v>46.48645471617445</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>75.28247925250795</v>
       </c>
       <c r="I19">
-        <v>28.2718977387714</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.015137370922063</v>
       </c>
       <c r="K19">
-        <v>24.34104695339141</v>
+        <v>18.36538913659966</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.90078322521607</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96964641631345</v>
+        <v>21.85534512852293</v>
       </c>
       <c r="C20">
-        <v>24.2822110966377</v>
+        <v>13.87117249306027</v>
       </c>
       <c r="D20">
-        <v>4.246683850774127</v>
+        <v>5.873152288694906</v>
       </c>
       <c r="E20">
-        <v>37.78260514039987</v>
+        <v>5.171111877141465</v>
       </c>
       <c r="F20">
-        <v>47.41869823053557</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>76.57721032110791</v>
       </c>
       <c r="I20">
-        <v>28.74209936104994</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.048336709892536</v>
       </c>
       <c r="K20">
-        <v>24.86562730522034</v>
+        <v>18.78257379260206</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.21297367640351</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.7841497363836</v>
+        <v>23.44365023220884</v>
       </c>
       <c r="C21">
-        <v>26.05169097615066</v>
+        <v>14.92426307212342</v>
       </c>
       <c r="D21">
-        <v>4.293469695038054</v>
+        <v>6.242054295548407</v>
       </c>
       <c r="E21">
-        <v>40.74242174616016</v>
+        <v>5.110805318613251</v>
       </c>
       <c r="F21">
-        <v>50.70053134929879</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>80.89155621147665</v>
       </c>
       <c r="I21">
-        <v>30.34317964763745</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.16418756642081</v>
       </c>
       <c r="K21">
-        <v>26.59725754599839</v>
+        <v>20.1597007156812</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.24264888510281</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.947524596409</v>
+        <v>24.46393053705636</v>
       </c>
       <c r="C22">
-        <v>27.19261544357585</v>
+        <v>15.6035839352387</v>
       </c>
       <c r="D22">
-        <v>4.333930237319974</v>
+        <v>6.480515544078534</v>
       </c>
       <c r="E22">
-        <v>42.67681176464244</v>
+        <v>5.074864199356328</v>
       </c>
       <c r="F22">
-        <v>52.87620191003636</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>83.68935302865169</v>
       </c>
       <c r="I22">
-        <v>31.4092425048176</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.243422899753855</v>
       </c>
       <c r="K22">
-        <v>27.70977582317495</v>
+        <v>21.04383130088235</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.9030551369777</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.32840086344184</v>
+        <v>23.9208345037867</v>
       </c>
       <c r="C23">
-        <v>26.58478644088901</v>
+        <v>15.24168811134899</v>
       </c>
       <c r="D23">
-        <v>4.311327902155241</v>
+        <v>6.353442489355388</v>
       </c>
       <c r="E23">
-        <v>41.64357189910925</v>
+        <v>5.093717094245577</v>
       </c>
       <c r="F23">
-        <v>51.71494545660777</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.19775908708137</v>
       </c>
       <c r="I23">
-        <v>30.83817831109833</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.200789580148062</v>
       </c>
       <c r="K23">
-        <v>27.11748783274836</v>
+        <v>20.57324098427662</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.55160663934691</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93955444951256</v>
+        <v>21.82904820657755</v>
       </c>
       <c r="C24">
-        <v>24.2529628820088</v>
+        <v>13.85377902303083</v>
       </c>
       <c r="D24">
-        <v>4.246064712164007</v>
+        <v>5.867069404883959</v>
       </c>
       <c r="E24">
-        <v>37.73406228558618</v>
+        <v>5.172153728965945</v>
       </c>
       <c r="F24">
-        <v>47.36752415769838</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>76.5062546519152</v>
       </c>
       <c r="I24">
-        <v>28.71620627927935</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.046498085995966</v>
       </c>
       <c r="K24">
-        <v>24.8369447727679</v>
+        <v>18.75976197643377</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.19590625921783</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.2434247563175</v>
+        <v>19.48110586959839</v>
       </c>
       <c r="C25">
-        <v>21.64427358616511</v>
+        <v>12.3056441125782</v>
       </c>
       <c r="D25">
-        <v>4.209231828912855</v>
+        <v>5.327467875258212</v>
       </c>
       <c r="E25">
-        <v>33.4491328461304</v>
+        <v>5.270641100965316</v>
       </c>
       <c r="F25">
-        <v>42.88948174085618</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>70.24564939453788</v>
       </c>
       <c r="I25">
-        <v>26.48968339694386</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.89328397284877</v>
       </c>
       <c r="K25">
-        <v>22.27151416571349</v>
+        <v>16.72070141841728</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>12.70721116423153</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.66001600617542</v>
+        <v>21.38603466663493</v>
       </c>
       <c r="C2">
-        <v>11.11044976584416</v>
+        <v>16.76151731602299</v>
       </c>
       <c r="D2">
-        <v>4.914147314616963</v>
+        <v>5.508548830430801</v>
       </c>
       <c r="E2">
-        <v>5.354183037828623</v>
+        <v>6.859983214555056</v>
       </c>
       <c r="F2">
-        <v>65.51282594520703</v>
+        <v>40.49320999807156</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.64953985194276</v>
       </c>
       <c r="J2">
-        <v>6.790091092941422</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.13456816352119</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.540019085375272</v>
       </c>
       <c r="M2">
-        <v>12.06739385137614</v>
+        <v>12.66568629166903</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.4431135976294</v>
+        <v>19.85549391719228</v>
       </c>
       <c r="C3">
-        <v>10.26158056048843</v>
+        <v>15.58473877754377</v>
       </c>
       <c r="D3">
-        <v>4.622958933313648</v>
+        <v>5.548881492420795</v>
       </c>
       <c r="E3">
-        <v>5.417318794814291</v>
+        <v>6.802531651674237</v>
       </c>
       <c r="F3">
-        <v>62.22595206683197</v>
+        <v>38.66908493569071</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>26.87216711528257</v>
       </c>
       <c r="J3">
-        <v>6.725443006260336</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.00138696801669</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.45147150226521</v>
       </c>
       <c r="M3">
-        <v>11.65127343144293</v>
+        <v>12.10594096590124</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7464329296269</v>
+        <v>18.86909413378349</v>
       </c>
       <c r="C4">
-        <v>9.720076283486788</v>
+        <v>14.82699154452779</v>
       </c>
       <c r="D4">
-        <v>4.438470507522575</v>
+        <v>5.576049481637181</v>
       </c>
       <c r="E4">
-        <v>5.459202055596228</v>
+        <v>6.76747130000167</v>
       </c>
       <c r="F4">
-        <v>60.1696787005727</v>
+        <v>37.54844285579371</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>26.4093842181863</v>
       </c>
       <c r="J4">
-        <v>6.688152961243743</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.34340424164793</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.400589633913614</v>
       </c>
       <c r="M4">
-        <v>11.40461178785802</v>
+        <v>11.75973432227964</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.45897595804359</v>
+        <v>18.45524303642769</v>
       </c>
       <c r="C5">
-        <v>9.494173474254445</v>
+        <v>14.50918427880528</v>
       </c>
       <c r="D5">
-        <v>4.361836228060068</v>
+        <v>5.587689045979203</v>
       </c>
       <c r="E5">
-        <v>5.477041049782525</v>
+        <v>6.753214795997662</v>
       </c>
       <c r="F5">
-        <v>59.32250887183486</v>
+        <v>37.09197747026023</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>26.22443439961895</v>
       </c>
       <c r="J5">
-        <v>6.673534092128361</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.11965273563584</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.380714955168619</v>
       </c>
       <c r="M5">
-        <v>11.30636791218324</v>
+        <v>11.61817648049249</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.41103592750493</v>
+        <v>18.38580141400631</v>
       </c>
       <c r="C6">
-        <v>9.456343008280527</v>
+        <v>14.45586325256678</v>
       </c>
       <c r="D6">
-        <v>4.349022978589278</v>
+        <v>5.589655135532038</v>
       </c>
       <c r="E6">
-        <v>5.480049438930156</v>
+        <v>6.750848746057391</v>
       </c>
       <c r="F6">
-        <v>59.18129409864196</v>
+        <v>37.01620632409055</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>26.19394303908197</v>
       </c>
       <c r="J6">
-        <v>6.671140731304844</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.08241130732078</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.377466240295806</v>
       </c>
       <c r="M6">
-        <v>11.29019351828316</v>
+        <v>11.59464734622093</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74257028760828</v>
+        <v>18.86356110623471</v>
       </c>
       <c r="C7">
-        <v>9.717051029644535</v>
+        <v>14.82274221457591</v>
       </c>
       <c r="D7">
-        <v>4.437442896093097</v>
+        <v>5.576204200288102</v>
       </c>
       <c r="E7">
-        <v>5.459439531502149</v>
+        <v>6.767278935726388</v>
       </c>
       <c r="F7">
-        <v>60.15829019889151</v>
+        <v>37.54228543320956</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>26.40687520469035</v>
       </c>
       <c r="J7">
-        <v>6.687953504133956</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.34039268096365</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.400318136526531</v>
       </c>
       <c r="M7">
-        <v>11.40327756031363</v>
+        <v>11.75782692035926</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.2194781005484</v>
+        <v>20.86788285665832</v>
       </c>
       <c r="C8">
-        <v>10.82188282762571</v>
+        <v>16.36296446173354</v>
       </c>
       <c r="D8">
-        <v>4.814911611685576</v>
+        <v>5.521933759484041</v>
       </c>
       <c r="E8">
-        <v>5.37529700387284</v>
+        <v>6.840114474786422</v>
       </c>
       <c r="F8">
-        <v>64.38758472146324</v>
+        <v>39.86457039363965</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.37847431592202</v>
       </c>
       <c r="J8">
-        <v>6.767284291020884</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.74999208192082</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.508754082832582</v>
       </c>
       <c r="M8">
-        <v>11.92210748484394</v>
+        <v>12.473294890497</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.2855747754606</v>
+        <v>24.43662256459026</v>
       </c>
       <c r="C9">
-        <v>12.83505748425152</v>
+        <v>19.1124103310926</v>
       </c>
       <c r="D9">
-        <v>5.511543762378016</v>
+        <v>5.436428338259944</v>
       </c>
       <c r="E9">
-        <v>5.23569854125858</v>
+        <v>6.985851113826821</v>
       </c>
       <c r="F9">
-        <v>72.37286479332148</v>
+        <v>44.40275748724785</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>29.40059353538972</v>
       </c>
       <c r="J9">
-        <v>6.943295506299889</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.4199295962034</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.749855429584149</v>
       </c>
       <c r="M9">
-        <v>13.19278049635159</v>
+        <v>14.04528556091233</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.40326070106958</v>
+        <v>26.85160493002711</v>
       </c>
       <c r="C10">
-        <v>14.23388054058914</v>
+        <v>20.98031413460422</v>
       </c>
       <c r="D10">
-        <v>6.000081362914241</v>
+        <v>5.389332798700242</v>
       </c>
       <c r="E10">
-        <v>5.149721991111012</v>
+        <v>7.096644101592749</v>
       </c>
       <c r="F10">
-        <v>78.05931246606997</v>
+        <v>47.7209557593963</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.96170141992791</v>
       </c>
       <c r="J10">
-        <v>7.087242350486902</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.25778038418288</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.945580370556352</v>
       </c>
       <c r="M10">
-        <v>14.5684313028437</v>
+        <v>15.39942136996234</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.34182254818312</v>
+        <v>27.90888088361748</v>
       </c>
       <c r="C11">
-        <v>14.85659154602297</v>
+        <v>21.80039291243909</v>
       </c>
       <c r="D11">
-        <v>6.218317305089681</v>
+        <v>5.372120983743828</v>
       </c>
       <c r="E11">
-        <v>5.114514435049617</v>
+        <v>7.148383885574469</v>
       </c>
       <c r="F11">
-        <v>80.61337984287864</v>
+        <v>49.22819116492936</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.68999112772698</v>
       </c>
       <c r="J11">
-        <v>7.15648233893982</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.0714448943235</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.038987484371752</v>
       </c>
       <c r="M11">
-        <v>15.17669830836913</v>
+        <v>15.99205243658364</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.69413792588656</v>
+        <v>28.30364978256674</v>
       </c>
       <c r="C12">
-        <v>15.09082568390607</v>
+        <v>22.10699498732802</v>
       </c>
       <c r="D12">
-        <v>6.300494086376013</v>
+        <v>5.366288803967197</v>
       </c>
       <c r="E12">
-        <v>5.101774685965277</v>
+        <v>7.168222358850482</v>
       </c>
       <c r="F12">
-        <v>81.57669116138567</v>
+        <v>49.79889718105868</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.96859501293674</v>
       </c>
       <c r="J12">
-        <v>7.183299994887221</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.37678826463596</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.075020309618647</v>
       </c>
       <c r="M12">
-        <v>15.40484960184837</v>
+        <v>16.21330614640196</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.61838985221009</v>
+        <v>28.21887226859485</v>
       </c>
       <c r="C13">
-        <v>15.04044221258283</v>
+        <v>22.04113261498593</v>
       </c>
       <c r="D13">
-        <v>6.282814476869618</v>
+        <v>5.367512972092155</v>
       </c>
       <c r="E13">
-        <v>5.1044915069156</v>
+        <v>7.163937914434598</v>
       </c>
       <c r="F13">
-        <v>81.36937978519832</v>
+        <v>49.6759817920469</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.90846335372783</v>
       </c>
       <c r="J13">
-        <v>7.177496709628343</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.31114254475666</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.067229972696684</v>
       </c>
       <c r="M13">
-        <v>15.35580446586499</v>
+        <v>16.16579243960031</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.37086682683034</v>
+        <v>27.94146883090691</v>
       </c>
       <c r="C14">
-        <v>14.87589118878882</v>
+        <v>21.82569431387416</v>
       </c>
       <c r="D14">
-        <v>6.225086625165189</v>
+        <v>5.371626925323348</v>
       </c>
       <c r="E14">
-        <v>5.113454253398992</v>
+        <v>7.150010746695671</v>
       </c>
       <c r="F14">
-        <v>80.69270347261421</v>
+        <v>49.27514243616032</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.71285415051597</v>
       </c>
       <c r="J14">
-        <v>7.158676292767025</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.09661844084732</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.04193845411662</v>
       </c>
       <c r="M14">
-        <v>15.19551016080551</v>
+        <v>16.01031727454861</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.21886383125081</v>
+        <v>27.77083308722551</v>
       </c>
       <c r="C15">
-        <v>14.774906750888</v>
+        <v>21.69322869939365</v>
       </c>
       <c r="D15">
-        <v>6.189669866602058</v>
+        <v>5.374238702092187</v>
       </c>
       <c r="E15">
-        <v>5.119022386970327</v>
+        <v>7.141513689079853</v>
       </c>
       <c r="F15">
-        <v>80.27774734650127</v>
+        <v>49.02962065508933</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.59341200808792</v>
       </c>
       <c r="J15">
-        <v>7.14722800125685</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>19.96486953464864</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.026533921148409</v>
       </c>
       <c r="M15">
-        <v>15.09705139182443</v>
+        <v>15.91467866559975</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.34146257941114</v>
+        <v>26.78170633212624</v>
       </c>
       <c r="C16">
-        <v>14.19294220926168</v>
+        <v>20.92614986632601</v>
       </c>
       <c r="D16">
-        <v>5.985747565816708</v>
+        <v>5.390548942107275</v>
       </c>
       <c r="E16">
-        <v>5.152103989879953</v>
+        <v>7.093294078431386</v>
       </c>
       <c r="F16">
-        <v>77.8918055120661</v>
+        <v>47.62242912625626</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.91448719799754</v>
       </c>
       <c r="J16">
-        <v>7.082797671715346</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.20419141907584</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.939566627133995</v>
       </c>
       <c r="M16">
-        <v>14.52835432386427</v>
+        <v>15.36023759908707</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.79716161696313</v>
+        <v>26.16455702562253</v>
       </c>
       <c r="C17">
-        <v>13.83269015050567</v>
+        <v>20.44819370433728</v>
       </c>
       <c r="D17">
-        <v>5.859694664080862</v>
+        <v>5.401686664608413</v>
       </c>
       <c r="E17">
-        <v>5.173418898887801</v>
+        <v>7.064091051914866</v>
       </c>
       <c r="F17">
-        <v>76.42023901830045</v>
+        <v>46.75873647964572</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>30.502761250881</v>
       </c>
       <c r="J17">
-        <v>7.044272188843605</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.73210069132962</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.887356027707253</v>
       </c>
       <c r="M17">
-        <v>14.17521004818172</v>
+        <v>15.01425311260051</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.48172842987205</v>
+        <v>25.80567753793441</v>
       </c>
       <c r="C18">
-        <v>13.62417378104631</v>
+        <v>20.17047473834664</v>
       </c>
       <c r="D18">
-        <v>5.786807723768806</v>
+        <v>5.408483809525877</v>
       </c>
       <c r="E18">
-        <v>5.186043937478087</v>
+        <v>7.047416662574495</v>
       </c>
       <c r="F18">
-        <v>75.57068531947334</v>
+        <v>46.26172851406264</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>30.26763807446312</v>
       </c>
       <c r="J18">
-        <v>7.022463087770113</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.45842910492676</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.857734961443958</v>
       </c>
       <c r="M18">
-        <v>13.97041860840731</v>
+        <v>14.813038885824</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.37450909653453</v>
+        <v>25.68348563435369</v>
       </c>
       <c r="C19">
-        <v>13.5533382803504</v>
+        <v>20.07595202012605</v>
       </c>
       <c r="D19">
-        <v>5.762060380834535</v>
+        <v>5.410850125642538</v>
       </c>
       <c r="E19">
-        <v>5.190380425911217</v>
+        <v>7.04179054992724</v>
       </c>
       <c r="F19">
-        <v>75.28247925250795</v>
+        <v>46.09340404722319</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>30.18831449917954</v>
       </c>
       <c r="J19">
-        <v>7.015137370922063</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.36538913659966</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.847775135111128</v>
       </c>
       <c r="M19">
-        <v>13.90078322521607</v>
+        <v>14.7445254650328</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.85534512852293</v>
+        <v>26.2306561230813</v>
       </c>
       <c r="C20">
-        <v>13.87117249306027</v>
+        <v>20.49936173399313</v>
       </c>
       <c r="D20">
-        <v>5.873152288694906</v>
+        <v>5.4004600258756</v>
       </c>
       <c r="E20">
-        <v>5.171111877141465</v>
+        <v>7.067186737472107</v>
       </c>
       <c r="F20">
-        <v>76.57721032110791</v>
+        <v>46.85070086210375</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.54641390105396</v>
       </c>
       <c r="J20">
-        <v>7.048336709892536</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.78257379260206</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.892871377164875</v>
       </c>
       <c r="M20">
-        <v>14.21297367640351</v>
+        <v>15.05131144320264</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.44365023220884</v>
+        <v>28.0230979225183</v>
       </c>
       <c r="C21">
-        <v>14.92426307212342</v>
+        <v>21.88907804966155</v>
       </c>
       <c r="D21">
-        <v>6.242054295548407</v>
+        <v>5.370399253261536</v>
       </c>
       <c r="E21">
-        <v>5.110805318613251</v>
+        <v>7.154094355133402</v>
       </c>
       <c r="F21">
-        <v>80.89155621147665</v>
+        <v>49.39287716194583</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.77023087217816</v>
       </c>
       <c r="J21">
-        <v>7.16418756642081</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.1597007156812</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.049348934084132</v>
       </c>
       <c r="M21">
-        <v>15.24264888510281</v>
+        <v>16.05606823187428</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.46393053705636</v>
+        <v>29.16212464752357</v>
       </c>
       <c r="C22">
-        <v>15.6035839352387</v>
+        <v>22.77453039495638</v>
       </c>
       <c r="D22">
-        <v>6.480515544078534</v>
+        <v>5.35479522605218</v>
       </c>
       <c r="E22">
-        <v>5.074864199356328</v>
+        <v>7.212357514021258</v>
       </c>
       <c r="F22">
-        <v>83.68935302865169</v>
+        <v>51.05427412365848</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.58663130413274</v>
       </c>
       <c r="J22">
-        <v>7.243422899753855</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.04383130088235</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.155492813343439</v>
       </c>
       <c r="M22">
-        <v>15.9030551369777</v>
+        <v>16.69441080737353</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.9208345037867</v>
+        <v>28.55704667788648</v>
       </c>
       <c r="C23">
-        <v>15.24168811134899</v>
+        <v>22.30391773613779</v>
       </c>
       <c r="D23">
-        <v>6.353442489355388</v>
+        <v>5.362723762923763</v>
       </c>
       <c r="E23">
-        <v>5.093717094245577</v>
+        <v>7.181107368288984</v>
       </c>
       <c r="F23">
-        <v>82.19775908708137</v>
+        <v>50.16743161187648</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.14929963111459</v>
       </c>
       <c r="J23">
-        <v>7.200789580148062</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.57324098427662</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.098474330675179</v>
       </c>
       <c r="M23">
-        <v>15.55160663934691</v>
+        <v>16.35531967649572</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.82904820657755</v>
+        <v>26.20078543008931</v>
       </c>
       <c r="C24">
-        <v>13.85377902303083</v>
+        <v>20.47623783495394</v>
       </c>
       <c r="D24">
-        <v>5.867069404883959</v>
+        <v>5.401013368161403</v>
       </c>
       <c r="E24">
-        <v>5.172153728965945</v>
+        <v>7.06578682426853</v>
       </c>
       <c r="F24">
-        <v>76.5062546519152</v>
+        <v>46.80912521457417</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>30.52667362033395</v>
       </c>
       <c r="J24">
-        <v>7.046498085995966</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.75976197643377</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.890376658173601</v>
       </c>
       <c r="M24">
-        <v>14.19590625921783</v>
+        <v>15.03456456030724</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48110586959839</v>
+        <v>23.50862129466934</v>
       </c>
       <c r="C25">
-        <v>12.3056441125782</v>
+        <v>18.39635661938568</v>
       </c>
       <c r="D25">
-        <v>5.327467875258212</v>
+        <v>5.457038958613296</v>
       </c>
       <c r="E25">
-        <v>5.270641100965316</v>
+        <v>6.945930420757762</v>
       </c>
       <c r="F25">
-        <v>70.24564939453788</v>
+        <v>43.17783587366477</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>28.84072969253645</v>
       </c>
       <c r="J25">
-        <v>6.89328397284877</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.72070141841728</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.681465065751985</v>
       </c>
       <c r="M25">
-        <v>12.70721116423153</v>
+        <v>13.52469803061681</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.38603466663493</v>
+        <v>18.45799994422025</v>
       </c>
       <c r="C2">
-        <v>16.76151731602299</v>
+        <v>9.160868140125007</v>
       </c>
       <c r="D2">
-        <v>5.508548830430801</v>
+        <v>7.747803205339658</v>
       </c>
       <c r="E2">
-        <v>6.859983214555056</v>
+        <v>9.868800480874389</v>
       </c>
       <c r="F2">
-        <v>40.49320999807156</v>
+        <v>40.75843688601618</v>
       </c>
       <c r="I2">
-        <v>27.64953985194276</v>
+        <v>32.27767050510513</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.540019085375272</v>
+        <v>10.3508525004283</v>
       </c>
       <c r="M2">
-        <v>12.66568629166903</v>
+        <v>16.68056971028254</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85549391719228</v>
+        <v>18.1203113214724</v>
       </c>
       <c r="C3">
-        <v>15.58473877754377</v>
+        <v>8.549156298291301</v>
       </c>
       <c r="D3">
-        <v>5.548881492420795</v>
+        <v>7.761444272747956</v>
       </c>
       <c r="E3">
-        <v>6.802531651674237</v>
+        <v>9.853265667986904</v>
       </c>
       <c r="F3">
-        <v>38.66908493569071</v>
+        <v>40.40164030969947</v>
       </c>
       <c r="I3">
-        <v>26.87216711528257</v>
+        <v>32.17800951951017</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.45147150226521</v>
+        <v>10.36146805487886</v>
       </c>
       <c r="M3">
-        <v>12.10594096590124</v>
+        <v>16.63224542646559</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86909413378349</v>
+        <v>17.91599688949033</v>
       </c>
       <c r="C4">
-        <v>14.82699154452779</v>
+        <v>8.180485582758843</v>
       </c>
       <c r="D4">
-        <v>5.576049481637181</v>
+        <v>7.770545946825064</v>
       </c>
       <c r="E4">
-        <v>6.76747130000167</v>
+        <v>9.843458967855595</v>
       </c>
       <c r="F4">
-        <v>37.54844285579371</v>
+        <v>40.19174032264964</v>
       </c>
       <c r="I4">
-        <v>26.4093842181863</v>
+        <v>32.12330283803288</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.400589633913614</v>
+        <v>10.36956841078449</v>
       </c>
       <c r="M4">
-        <v>11.75973432227964</v>
+        <v>16.60650184841725</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45524303642769</v>
+        <v>17.8336257496221</v>
       </c>
       <c r="C5">
-        <v>14.50918427880528</v>
+        <v>8.032866124750635</v>
       </c>
       <c r="D5">
-        <v>5.587689045979203</v>
+        <v>7.774436833479853</v>
       </c>
       <c r="E5">
-        <v>6.753214795997662</v>
+        <v>9.839394905585259</v>
       </c>
       <c r="F5">
-        <v>37.09197747026023</v>
+        <v>40.10858002655451</v>
       </c>
       <c r="I5">
-        <v>26.22443439961895</v>
+        <v>32.10264541658203</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.380714955168619</v>
+        <v>10.3732671441193</v>
       </c>
       <c r="M5">
-        <v>11.61817648049249</v>
+        <v>16.59700625996338</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38580141400631</v>
+        <v>17.82000546900234</v>
       </c>
       <c r="C6">
-        <v>14.45586325256678</v>
+        <v>8.008117276074342</v>
       </c>
       <c r="D6">
-        <v>5.589655135532038</v>
+        <v>7.775093877562648</v>
       </c>
       <c r="E6">
-        <v>6.750848746057391</v>
+        <v>9.838715970453334</v>
       </c>
       <c r="F6">
-        <v>37.01620632409055</v>
+        <v>40.09491670895527</v>
       </c>
       <c r="I6">
-        <v>26.19394303908197</v>
+        <v>32.09931419216049</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.377466240295806</v>
+        <v>10.37390533536542</v>
       </c>
       <c r="M6">
-        <v>11.59464734622093</v>
+        <v>16.59548982568695</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.86356110623471</v>
+        <v>17.91488223754052</v>
       </c>
       <c r="C7">
-        <v>14.82274221457591</v>
+        <v>8.178510700732824</v>
       </c>
       <c r="D7">
-        <v>5.576204200288102</v>
+        <v>7.770597685174736</v>
       </c>
       <c r="E7">
-        <v>6.767278935726388</v>
+        <v>9.843404433179856</v>
       </c>
       <c r="F7">
-        <v>37.54228543320956</v>
+        <v>40.19060908834178</v>
       </c>
       <c r="I7">
-        <v>26.40687520469035</v>
+        <v>32.12301761548829</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.400318136526531</v>
+        <v>10.36961668285754</v>
       </c>
       <c r="M7">
-        <v>11.75782692035926</v>
+        <v>16.60636974932477</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86788285665832</v>
+        <v>18.34101288855091</v>
       </c>
       <c r="C8">
-        <v>16.36296446173354</v>
+        <v>8.954773425292407</v>
       </c>
       <c r="D8">
-        <v>5.521933759484041</v>
+        <v>7.752355554886138</v>
       </c>
       <c r="E8">
-        <v>6.840114474786422</v>
+        <v>9.863499574267458</v>
       </c>
       <c r="F8">
-        <v>39.86457039363965</v>
+        <v>40.63355198149874</v>
       </c>
       <c r="I8">
-        <v>27.37847431592202</v>
+        <v>32.24196493377384</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.508754082832582</v>
+        <v>10.35418426784253</v>
       </c>
       <c r="M8">
-        <v>12.473294890497</v>
+        <v>16.66309708969888</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.43662256459026</v>
+        <v>19.19510509675683</v>
       </c>
       <c r="C9">
-        <v>19.1124103310926</v>
+        <v>10.35285892843328</v>
       </c>
       <c r="D9">
-        <v>5.436428338259944</v>
+        <v>7.722373731891288</v>
       </c>
       <c r="E9">
-        <v>6.985851113826821</v>
+        <v>9.900791979787304</v>
       </c>
       <c r="F9">
-        <v>44.40275748724785</v>
+        <v>41.57170681545315</v>
       </c>
       <c r="I9">
-        <v>29.40059353538972</v>
+        <v>32.5263790911565</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.749855429584149</v>
+        <v>10.33648063554029</v>
       </c>
       <c r="M9">
-        <v>14.04528556091233</v>
+        <v>16.80512984684251</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.85160493002711</v>
+        <v>19.82651826865618</v>
       </c>
       <c r="C10">
-        <v>20.98031413460422</v>
+        <v>11.26912385133704</v>
       </c>
       <c r="D10">
-        <v>5.389332798700242</v>
+        <v>7.70391822810739</v>
       </c>
       <c r="E10">
-        <v>7.096644101592749</v>
+        <v>9.926923476377358</v>
       </c>
       <c r="F10">
-        <v>47.7209557593963</v>
+        <v>42.29871886166547</v>
       </c>
       <c r="I10">
-        <v>30.96170141992791</v>
+        <v>32.76601570514847</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.945580370556352</v>
+        <v>10.33113318117312</v>
       </c>
       <c r="M10">
-        <v>15.39942136996234</v>
+        <v>16.92768607581569</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90888088361748</v>
+        <v>20.11312418218356</v>
       </c>
       <c r="C11">
-        <v>21.80039291243909</v>
+        <v>11.66213646970415</v>
       </c>
       <c r="D11">
-        <v>5.372120983743828</v>
+        <v>7.696307075902159</v>
       </c>
       <c r="E11">
-        <v>7.148383885574469</v>
+        <v>9.938540951006596</v>
       </c>
       <c r="F11">
-        <v>49.22819116492936</v>
+        <v>42.63659173468189</v>
       </c>
       <c r="I11">
-        <v>31.68999112772698</v>
+        <v>32.88154896831792</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.038987484371752</v>
+        <v>10.33036276751787</v>
       </c>
       <c r="M11">
-        <v>15.99205243658364</v>
+        <v>16.98725223177435</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.30364978256674</v>
+        <v>20.22144635513894</v>
       </c>
       <c r="C12">
-        <v>22.10699498732802</v>
+        <v>11.80755800301246</v>
       </c>
       <c r="D12">
-        <v>5.366288803967197</v>
+        <v>7.693538484526117</v>
       </c>
       <c r="E12">
-        <v>7.168222358850482</v>
+        <v>9.942901724526667</v>
       </c>
       <c r="F12">
-        <v>49.79889718105868</v>
+        <v>42.76547086945171</v>
       </c>
       <c r="I12">
-        <v>31.96859501293674</v>
+        <v>32.92622100209499</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.075020309618647</v>
+        <v>10.33030979743401</v>
       </c>
       <c r="M12">
-        <v>16.21330614640196</v>
+        <v>17.01034358829594</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.21887226859485</v>
+        <v>20.19812838030589</v>
       </c>
       <c r="C13">
-        <v>22.04113261498593</v>
+        <v>11.77638996271164</v>
       </c>
       <c r="D13">
-        <v>5.367512972092155</v>
+        <v>7.694129685637853</v>
       </c>
       <c r="E13">
-        <v>7.163937914434598</v>
+        <v>9.941964262030123</v>
       </c>
       <c r="F13">
-        <v>49.6759817920469</v>
+        <v>42.73767442036437</v>
       </c>
       <c r="I13">
-        <v>31.90846335372783</v>
+        <v>32.91655933657304</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.067229972696684</v>
+        <v>10.33031059108091</v>
       </c>
       <c r="M13">
-        <v>16.16579243960031</v>
+        <v>17.00534688521634</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94146883090691</v>
+        <v>20.1220407686592</v>
       </c>
       <c r="C14">
-        <v>21.82569431387416</v>
+        <v>11.67416849751437</v>
       </c>
       <c r="D14">
-        <v>5.371626925323348</v>
+        <v>7.696077021184553</v>
       </c>
       <c r="E14">
-        <v>7.150010746695671</v>
+        <v>9.938900484602005</v>
       </c>
       <c r="F14">
-        <v>49.27514243616032</v>
+        <v>42.64717652579214</v>
       </c>
       <c r="I14">
-        <v>31.71285415051597</v>
+        <v>32.88520577879117</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.04193845411662</v>
+        <v>10.33035362609286</v>
       </c>
       <c r="M14">
-        <v>16.01031727454861</v>
+        <v>16.98914133138905</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77083308722551</v>
+        <v>20.07540421824613</v>
       </c>
       <c r="C15">
-        <v>21.69322869939365</v>
+        <v>11.61111217471698</v>
       </c>
       <c r="D15">
-        <v>5.374238702092187</v>
+        <v>7.697284636567082</v>
       </c>
       <c r="E15">
-        <v>7.141513689079853</v>
+        <v>9.937018825885833</v>
       </c>
       <c r="F15">
-        <v>49.02962065508933</v>
+        <v>42.5918627601673</v>
       </c>
       <c r="I15">
-        <v>31.59341200808792</v>
+        <v>32.86612041048971</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.026533921148409</v>
+        <v>10.33041107214059</v>
       </c>
       <c r="M15">
-        <v>15.91467866559975</v>
+        <v>16.97928420926312</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78170633212624</v>
+        <v>19.80776497278775</v>
       </c>
       <c r="C16">
-        <v>20.92614986632601</v>
+        <v>11.2429622211188</v>
       </c>
       <c r="D16">
-        <v>5.390548942107275</v>
+        <v>7.704431486034763</v>
       </c>
       <c r="E16">
-        <v>7.093294078431386</v>
+        <v>9.926158841743192</v>
       </c>
       <c r="F16">
-        <v>47.62242912625626</v>
+        <v>42.27677395295827</v>
       </c>
       <c r="I16">
-        <v>30.91448719799754</v>
+        <v>32.75859525900302</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.939566627133995</v>
+        <v>10.33121695732669</v>
       </c>
       <c r="M16">
-        <v>15.36023759908707</v>
+        <v>16.92386890576586</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.16455702562253</v>
+        <v>19.6433298806652</v>
       </c>
       <c r="C17">
-        <v>20.44819370433728</v>
+        <v>11.01103153294043</v>
       </c>
       <c r="D17">
-        <v>5.401686664608413</v>
+        <v>7.709017303638932</v>
       </c>
       <c r="E17">
-        <v>7.064091051914866</v>
+        <v>9.919427681537965</v>
       </c>
       <c r="F17">
-        <v>46.75873647964572</v>
+        <v>42.08524226061944</v>
       </c>
       <c r="I17">
-        <v>30.502761250881</v>
+        <v>32.69429171160528</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.887356027707253</v>
+        <v>10.33213691385767</v>
       </c>
       <c r="M17">
-        <v>15.01425311260051</v>
+        <v>16.89084104558535</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.80567753793441</v>
+        <v>19.5486989324862</v>
       </c>
       <c r="C18">
-        <v>20.17047473834664</v>
+        <v>10.87538977111624</v>
       </c>
       <c r="D18">
-        <v>5.408483809525877</v>
+        <v>7.711728723244892</v>
       </c>
       <c r="E18">
-        <v>7.047416662574495</v>
+        <v>9.915530676549631</v>
       </c>
       <c r="F18">
-        <v>46.26172851406264</v>
+        <v>41.97575720334503</v>
       </c>
       <c r="I18">
-        <v>30.26763807446312</v>
+        <v>32.65792087817589</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.857734961443958</v>
+        <v>10.33282252032165</v>
       </c>
       <c r="M18">
-        <v>14.813038885824</v>
+        <v>16.87220422350605</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.68348563435369</v>
+        <v>19.51665326715863</v>
       </c>
       <c r="C19">
-        <v>20.07595202012605</v>
+        <v>10.82907827235356</v>
       </c>
       <c r="D19">
-        <v>5.410850125642538</v>
+        <v>7.712659410628548</v>
       </c>
       <c r="E19">
-        <v>7.04179054992724</v>
+        <v>9.914206842814444</v>
       </c>
       <c r="F19">
-        <v>46.09340404722319</v>
+        <v>41.93880689339179</v>
       </c>
       <c r="I19">
-        <v>30.18831449917954</v>
+        <v>32.64571239329634</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.847775135111128</v>
+        <v>10.33308153521749</v>
       </c>
       <c r="M19">
-        <v>14.7445254650328</v>
+        <v>16.86595633441655</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2306561230813</v>
+        <v>19.66084056312132</v>
       </c>
       <c r="C20">
-        <v>20.49936173399313</v>
+        <v>11.03595278722994</v>
       </c>
       <c r="D20">
-        <v>5.4004600258756</v>
+        <v>7.708521493956932</v>
       </c>
       <c r="E20">
-        <v>7.067186737472107</v>
+        <v>9.920146853737068</v>
       </c>
       <c r="F20">
-        <v>46.85070086210375</v>
+        <v>42.10556155024031</v>
       </c>
       <c r="I20">
-        <v>30.54641390105396</v>
+        <v>32.70107340602817</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.892871377164875</v>
+        <v>10.33202279020868</v>
       </c>
       <c r="M20">
-        <v>15.05131144320264</v>
+        <v>16.89431976219256</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.0230979225183</v>
+        <v>20.14439614516365</v>
       </c>
       <c r="C21">
-        <v>21.88907804966155</v>
+        <v>11.70428564972222</v>
       </c>
       <c r="D21">
-        <v>5.370399253261536</v>
+        <v>7.695501952427983</v>
       </c>
       <c r="E21">
-        <v>7.154094355133402</v>
+        <v>9.939801433137632</v>
       </c>
       <c r="F21">
-        <v>49.39287716194583</v>
+        <v>42.67373336214681</v>
       </c>
       <c r="I21">
-        <v>31.77023087217816</v>
+        <v>32.8943901862451</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.049348934084132</v>
+        <v>10.33033450796929</v>
       </c>
       <c r="M21">
-        <v>16.05606823187428</v>
+        <v>16.99388688970307</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16212464752357</v>
+        <v>20.4591567497187</v>
       </c>
       <c r="C22">
-        <v>22.77453039495638</v>
+        <v>12.12124836590292</v>
       </c>
       <c r="D22">
-        <v>5.35479522605218</v>
+        <v>7.687655374302807</v>
       </c>
       <c r="E22">
-        <v>7.212357514021258</v>
+        <v>9.952422498687667</v>
       </c>
       <c r="F22">
-        <v>51.05427412365848</v>
+        <v>43.05046587284382</v>
       </c>
       <c r="I22">
-        <v>32.58663130413274</v>
+        <v>33.02610015720046</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.155492813343439</v>
+        <v>10.33062266783916</v>
       </c>
       <c r="M22">
-        <v>16.69441080737353</v>
+        <v>17.06207094498916</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.55704667788648</v>
+        <v>20.29131724473464</v>
       </c>
       <c r="C23">
-        <v>22.30391773613779</v>
+        <v>11.90051594257459</v>
       </c>
       <c r="D23">
-        <v>5.362723762923763</v>
+        <v>7.691782361797331</v>
       </c>
       <c r="E23">
-        <v>7.181107368288984</v>
+        <v>9.945706827118828</v>
       </c>
       <c r="F23">
-        <v>50.16743161187648</v>
+        <v>42.84893414643774</v>
       </c>
       <c r="I23">
-        <v>32.14929963111459</v>
+        <v>32.95531864238356</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.098474330675179</v>
+        <v>10.33034164957212</v>
       </c>
       <c r="M23">
-        <v>16.35531967649572</v>
+        <v>17.02539986773143</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.20078543008931</v>
+        <v>19.65292427046247</v>
       </c>
       <c r="C24">
-        <v>20.47623783495394</v>
+        <v>11.02469305892787</v>
       </c>
       <c r="D24">
-        <v>5.401013368161403</v>
+        <v>7.708745416053396</v>
       </c>
       <c r="E24">
-        <v>7.06578682426853</v>
+        <v>9.919821800640527</v>
       </c>
       <c r="F24">
-        <v>46.80912521457417</v>
+        <v>42.09637323287214</v>
       </c>
       <c r="I24">
-        <v>30.52667362033395</v>
+        <v>32.69800553776125</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.890376658173601</v>
+        <v>10.33207389737198</v>
       </c>
       <c r="M24">
-        <v>15.03456456030724</v>
+        <v>16.89274593906384</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50862129466934</v>
+        <v>18.96284380967248</v>
       </c>
       <c r="C25">
-        <v>18.39635661938568</v>
+        <v>9.994205526450182</v>
       </c>
       <c r="D25">
-        <v>5.457038958613296</v>
+        <v>7.729860346167293</v>
       </c>
       <c r="E25">
-        <v>6.945930420757762</v>
+        <v>9.890927500743702</v>
       </c>
       <c r="F25">
-        <v>43.17783587366477</v>
+        <v>41.31093064449718</v>
       </c>
       <c r="I25">
-        <v>28.84072969253645</v>
+        <v>32.44400619024821</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.681465065751985</v>
+        <v>10.33992475564365</v>
       </c>
       <c r="M25">
-        <v>13.52469803061681</v>
+        <v>16.76346434626922</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.45799994422025</v>
+        <v>21.38603466663489</v>
       </c>
       <c r="C2">
-        <v>9.160868140125007</v>
+        <v>16.76151731602305</v>
       </c>
       <c r="D2">
-        <v>7.747803205339658</v>
+        <v>5.508548830430912</v>
       </c>
       <c r="E2">
-        <v>9.868800480874389</v>
+        <v>6.859983214555188</v>
       </c>
       <c r="F2">
-        <v>40.75843688601618</v>
+        <v>40.49320999807156</v>
       </c>
       <c r="I2">
-        <v>32.27767050510513</v>
+        <v>27.64953985194283</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.3508525004283</v>
+        <v>6.540019085375295</v>
       </c>
       <c r="M2">
-        <v>16.68056971028254</v>
+        <v>12.66568629166905</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,22 +462,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.1203113214724</v>
+        <v>19.85549391719229</v>
       </c>
       <c r="C3">
-        <v>8.549156298291301</v>
+        <v>15.58473877754376</v>
       </c>
       <c r="D3">
-        <v>7.761444272747956</v>
+        <v>5.548881492420912</v>
       </c>
       <c r="E3">
-        <v>9.853265667986904</v>
+        <v>6.802531651674237</v>
       </c>
       <c r="F3">
-        <v>40.40164030969947</v>
+        <v>38.66908493569072</v>
       </c>
       <c r="I3">
-        <v>32.17800951951017</v>
+        <v>26.87216711528255</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.36146805487886</v>
+        <v>6.451471502265278</v>
       </c>
       <c r="M3">
-        <v>16.63224542646559</v>
+        <v>12.10594096590124</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.91599688949033</v>
+        <v>18.86909413378345</v>
       </c>
       <c r="C4">
-        <v>8.180485582758843</v>
+        <v>14.82699154452777</v>
       </c>
       <c r="D4">
-        <v>7.770545946825064</v>
+        <v>5.576049481637058</v>
       </c>
       <c r="E4">
-        <v>9.843458967855595</v>
+        <v>6.767471300001807</v>
       </c>
       <c r="F4">
-        <v>40.19174032264964</v>
+        <v>37.54844285579374</v>
       </c>
       <c r="I4">
-        <v>32.12330283803288</v>
+        <v>26.40938421818636</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.36956841078449</v>
+        <v>6.400589633913676</v>
       </c>
       <c r="M4">
-        <v>16.60650184841725</v>
+        <v>11.75973432227972</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.8336257496221</v>
+        <v>18.45524303642771</v>
       </c>
       <c r="C5">
-        <v>8.032866124750635</v>
+        <v>14.50918427880523</v>
       </c>
       <c r="D5">
-        <v>7.774436833479853</v>
+        <v>5.587689045979293</v>
       </c>
       <c r="E5">
-        <v>9.839394905585259</v>
+        <v>6.753214795997526</v>
       </c>
       <c r="F5">
-        <v>40.10858002655451</v>
+        <v>37.09197747026035</v>
       </c>
       <c r="I5">
-        <v>32.10264541658203</v>
+        <v>26.22443439961901</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.3732671441193</v>
+        <v>6.380714955168552</v>
       </c>
       <c r="M5">
-        <v>16.59700625996338</v>
+        <v>11.61817648049249</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,22 +585,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.82000546900234</v>
+        <v>18.38580141400628</v>
       </c>
       <c r="C6">
-        <v>8.008117276074342</v>
+        <v>14.4558632525667</v>
       </c>
       <c r="D6">
-        <v>7.775093877562648</v>
+        <v>5.589655135532038</v>
       </c>
       <c r="E6">
-        <v>9.838715970453334</v>
+        <v>6.750848746057327</v>
       </c>
       <c r="F6">
-        <v>40.09491670895527</v>
+        <v>37.01620632409066</v>
       </c>
       <c r="I6">
-        <v>32.09931419216049</v>
+        <v>26.19394303908208</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.37390533536542</v>
+        <v>6.377466240295801</v>
       </c>
       <c r="M6">
-        <v>16.59548982568695</v>
+        <v>11.59464734622094</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.91488223754052</v>
+        <v>18.86356110623475</v>
       </c>
       <c r="C7">
-        <v>8.178510700732824</v>
+        <v>14.82274221457587</v>
       </c>
       <c r="D7">
-        <v>7.770597685174736</v>
+        <v>5.576204200288169</v>
       </c>
       <c r="E7">
-        <v>9.843404433179856</v>
+        <v>6.767278935726321</v>
       </c>
       <c r="F7">
-        <v>40.19060908834178</v>
+        <v>37.54228543320965</v>
       </c>
       <c r="I7">
-        <v>32.12301761548829</v>
+        <v>26.4068752046904</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.36961668285754</v>
+        <v>6.400318136526491</v>
       </c>
       <c r="M7">
-        <v>16.60636974932477</v>
+        <v>11.75782692035922</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,22 +667,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.34101288855091</v>
+        <v>20.86788285665832</v>
       </c>
       <c r="C8">
-        <v>8.954773425292407</v>
+        <v>16.36296446173366</v>
       </c>
       <c r="D8">
-        <v>7.752355554886138</v>
+        <v>5.521933759483947</v>
       </c>
       <c r="E8">
-        <v>9.863499574267458</v>
+        <v>6.840114474786422</v>
       </c>
       <c r="F8">
-        <v>40.63355198149874</v>
+        <v>39.86457039363977</v>
       </c>
       <c r="I8">
-        <v>32.24196493377384</v>
+        <v>27.37847431592203</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.35418426784253</v>
+        <v>6.508754082832523</v>
       </c>
       <c r="M8">
-        <v>16.66309708969888</v>
+        <v>12.473294890497</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.19510509675683</v>
+        <v>24.43662256459036</v>
       </c>
       <c r="C9">
-        <v>10.35285892843328</v>
+        <v>19.11241033109274</v>
       </c>
       <c r="D9">
-        <v>7.722373731891288</v>
+        <v>5.436428338259941</v>
       </c>
       <c r="E9">
-        <v>9.900791979787304</v>
+        <v>6.985851113826821</v>
       </c>
       <c r="F9">
-        <v>41.57170681545315</v>
+        <v>44.40275748724798</v>
       </c>
       <c r="I9">
-        <v>32.5263790911565</v>
+        <v>29.40059353538975</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.33648063554029</v>
+        <v>6.749855429584102</v>
       </c>
       <c r="M9">
-        <v>16.80512984684251</v>
+        <v>14.04528556091243</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.82651826865618</v>
+        <v>26.85160493002712</v>
       </c>
       <c r="C10">
-        <v>11.26912385133704</v>
+        <v>20.98031413460413</v>
       </c>
       <c r="D10">
-        <v>7.70391822810739</v>
+        <v>5.389332798700426</v>
       </c>
       <c r="E10">
-        <v>9.926923476377358</v>
+        <v>7.096644101592685</v>
       </c>
       <c r="F10">
-        <v>42.29871886166547</v>
+        <v>47.72095575939631</v>
       </c>
       <c r="I10">
-        <v>32.76601570514847</v>
+        <v>30.96170141992796</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.33113318117312</v>
+        <v>6.945580370556312</v>
       </c>
       <c r="M10">
-        <v>16.92768607581569</v>
+        <v>15.39942136996233</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,22 +790,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11312418218356</v>
+        <v>27.9088808836174</v>
       </c>
       <c r="C11">
-        <v>11.66213646970415</v>
+        <v>21.80039291243911</v>
       </c>
       <c r="D11">
-        <v>7.696307075902159</v>
+        <v>5.3721209837438</v>
       </c>
       <c r="E11">
-        <v>9.938540951006596</v>
+        <v>7.148383885574333</v>
       </c>
       <c r="F11">
-        <v>42.63659173468189</v>
+        <v>49.22819116492938</v>
       </c>
       <c r="I11">
-        <v>32.88154896831792</v>
+        <v>31.68999112772707</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.33036276751787</v>
+        <v>7.038987484371721</v>
       </c>
       <c r="M11">
-        <v>16.98725223177435</v>
+        <v>15.99205243658362</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,22 +831,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.22144635513894</v>
+        <v>28.30364978256677</v>
       </c>
       <c r="C12">
-        <v>11.80755800301246</v>
+        <v>22.10699498732811</v>
       </c>
       <c r="D12">
-        <v>7.693538484526117</v>
+        <v>5.366288803967196</v>
       </c>
       <c r="E12">
-        <v>9.942901724526667</v>
+        <v>7.168222358850547</v>
       </c>
       <c r="F12">
-        <v>42.76547086945171</v>
+        <v>49.79889718105881</v>
       </c>
       <c r="I12">
-        <v>32.92622100209499</v>
+        <v>31.96859501293682</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.33030979743401</v>
+        <v>7.07502030961861</v>
       </c>
       <c r="M12">
-        <v>17.01034358829594</v>
+        <v>16.21330614640198</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.19812838030589</v>
+        <v>28.21887226859485</v>
       </c>
       <c r="C13">
-        <v>11.77638996271164</v>
+        <v>22.04113261498613</v>
       </c>
       <c r="D13">
-        <v>7.694129685637853</v>
+        <v>5.367512972092225</v>
       </c>
       <c r="E13">
-        <v>9.941964262030123</v>
+        <v>7.16393791443473</v>
       </c>
       <c r="F13">
-        <v>42.73767442036437</v>
+        <v>49.67598179204696</v>
       </c>
       <c r="I13">
-        <v>32.91655933657304</v>
+        <v>31.90846335372791</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.33031059108091</v>
+        <v>7.067229972696707</v>
       </c>
       <c r="M13">
-        <v>17.00534688521634</v>
+        <v>16.1657924396003</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.1220407686592</v>
+        <v>27.94146883090681</v>
       </c>
       <c r="C14">
-        <v>11.67416849751437</v>
+        <v>21.82569431387413</v>
       </c>
       <c r="D14">
-        <v>7.696077021184553</v>
+        <v>5.371626925323374</v>
       </c>
       <c r="E14">
-        <v>9.938900484602005</v>
+        <v>7.150010746695738</v>
       </c>
       <c r="F14">
-        <v>42.64717652579214</v>
+        <v>49.27514243616033</v>
       </c>
       <c r="I14">
-        <v>32.88520577879117</v>
+        <v>31.71285415051608</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.33035362609286</v>
+        <v>7.04193845411663</v>
       </c>
       <c r="M14">
-        <v>16.98914133138905</v>
+        <v>16.01031727454852</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,22 +954,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.07540421824613</v>
+        <v>27.77083308722544</v>
       </c>
       <c r="C15">
-        <v>11.61111217471698</v>
+        <v>21.69322869939342</v>
       </c>
       <c r="D15">
-        <v>7.697284636567082</v>
+        <v>5.374238702092361</v>
       </c>
       <c r="E15">
-        <v>9.937018825885833</v>
+        <v>7.141513689079789</v>
       </c>
       <c r="F15">
-        <v>42.5918627601673</v>
+        <v>49.0296206550892</v>
       </c>
       <c r="I15">
-        <v>32.86612041048971</v>
+        <v>31.59341200808787</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.33041107214059</v>
+        <v>7.026533921148443</v>
       </c>
       <c r="M15">
-        <v>16.97928420926312</v>
+        <v>15.91467866559967</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.80776497278775</v>
+        <v>26.78170633212622</v>
       </c>
       <c r="C16">
-        <v>11.2429622211188</v>
+        <v>20.92614986632618</v>
       </c>
       <c r="D16">
-        <v>7.704431486034763</v>
+        <v>5.390548942107375</v>
       </c>
       <c r="E16">
-        <v>9.926158841743192</v>
+        <v>7.093294078431521</v>
       </c>
       <c r="F16">
-        <v>42.27677395295827</v>
+        <v>47.62242912625641</v>
       </c>
       <c r="I16">
-        <v>32.75859525900302</v>
+        <v>30.91448719799761</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.33121695732669</v>
+        <v>6.93956662713399</v>
       </c>
       <c r="M16">
-        <v>16.92386890576586</v>
+        <v>15.36023759908708</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,22 +1036,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.6433298806652</v>
+        <v>26.16455702562248</v>
       </c>
       <c r="C17">
-        <v>11.01103153294043</v>
+        <v>20.44819370433715</v>
       </c>
       <c r="D17">
-        <v>7.709017303638932</v>
+        <v>5.401686664608454</v>
       </c>
       <c r="E17">
-        <v>9.919427681537965</v>
+        <v>7.064091051914733</v>
       </c>
       <c r="F17">
-        <v>42.08524226061944</v>
+        <v>46.75873647964568</v>
       </c>
       <c r="I17">
-        <v>32.69429171160528</v>
+        <v>30.50276125088099</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.33213691385767</v>
+        <v>6.887356027707193</v>
       </c>
       <c r="M17">
-        <v>16.89084104558535</v>
+        <v>15.01425311260049</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,22 +1077,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.5486989324862</v>
+        <v>25.80567753793456</v>
       </c>
       <c r="C18">
-        <v>10.87538977111624</v>
+        <v>20.1704747383465</v>
       </c>
       <c r="D18">
-        <v>7.711728723244892</v>
+        <v>5.408483809525812</v>
       </c>
       <c r="E18">
-        <v>9.915530676549631</v>
+        <v>7.047416662574495</v>
       </c>
       <c r="F18">
-        <v>41.97575720334503</v>
+        <v>46.26172851406275</v>
       </c>
       <c r="I18">
-        <v>32.65792087817589</v>
+        <v>30.26763807446313</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.33282252032165</v>
+        <v>6.857734961443978</v>
       </c>
       <c r="M18">
-        <v>16.87220422350605</v>
+        <v>14.81303888582406</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.51665326715863</v>
+        <v>25.6834856343538</v>
       </c>
       <c r="C19">
-        <v>10.82907827235356</v>
+        <v>20.07595202012618</v>
       </c>
       <c r="D19">
-        <v>7.712659410628548</v>
+        <v>5.410850125642575</v>
       </c>
       <c r="E19">
-        <v>9.914206842814444</v>
+        <v>7.041790549927303</v>
       </c>
       <c r="F19">
-        <v>41.93880689339179</v>
+        <v>46.09340404722354</v>
       </c>
       <c r="I19">
-        <v>32.64571239329634</v>
+        <v>30.18831449917979</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.33308153521749</v>
+        <v>6.847775135111105</v>
       </c>
       <c r="M19">
-        <v>16.86595633441655</v>
+        <v>14.7445254650329</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,22 +1159,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.66084056312132</v>
+        <v>26.23065612308132</v>
       </c>
       <c r="C20">
-        <v>11.03595278722994</v>
+        <v>20.49936173399291</v>
       </c>
       <c r="D20">
-        <v>7.708521493956932</v>
+        <v>5.400460025875693</v>
       </c>
       <c r="E20">
-        <v>9.920146853737068</v>
+        <v>7.067186737472038</v>
       </c>
       <c r="F20">
-        <v>42.10556155024031</v>
+        <v>46.85070086210375</v>
       </c>
       <c r="I20">
-        <v>32.70107340602817</v>
+        <v>30.54641390105395</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.33202279020868</v>
+        <v>6.892871377164892</v>
       </c>
       <c r="M20">
-        <v>16.89431976219256</v>
+        <v>15.05131144320264</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,22 +1200,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.14439614516365</v>
+        <v>28.02309792251832</v>
       </c>
       <c r="C21">
-        <v>11.70428564972222</v>
+        <v>21.88907804966152</v>
       </c>
       <c r="D21">
-        <v>7.695501952427983</v>
+        <v>5.370399253261413</v>
       </c>
       <c r="E21">
-        <v>9.939801433137632</v>
+        <v>7.15409435513333</v>
       </c>
       <c r="F21">
-        <v>42.67373336214681</v>
+        <v>49.39287716194607</v>
       </c>
       <c r="I21">
-        <v>32.8943901862451</v>
+        <v>31.7702308721783</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.33033450796929</v>
+        <v>7.049348934084124</v>
       </c>
       <c r="M21">
-        <v>16.99388688970307</v>
+        <v>16.05606823187431</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.4591567497187</v>
+        <v>29.16212464752371</v>
       </c>
       <c r="C22">
-        <v>12.12124836590292</v>
+        <v>22.77453039495661</v>
       </c>
       <c r="D22">
-        <v>7.687655374302807</v>
+        <v>5.354795226052285</v>
       </c>
       <c r="E22">
-        <v>9.952422498687667</v>
+        <v>7.212357514021322</v>
       </c>
       <c r="F22">
-        <v>43.05046587284382</v>
+        <v>51.05427412365886</v>
       </c>
       <c r="I22">
-        <v>33.02610015720046</v>
+        <v>32.58663130413296</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.33062266783916</v>
+        <v>7.155492813343437</v>
       </c>
       <c r="M22">
-        <v>17.06207094498916</v>
+        <v>16.69441080737365</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,22 +1282,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.29131724473464</v>
+        <v>28.55704667788648</v>
       </c>
       <c r="C23">
-        <v>11.90051594257459</v>
+        <v>22.30391773613761</v>
       </c>
       <c r="D23">
-        <v>7.691782361797331</v>
+        <v>5.362723762923752</v>
       </c>
       <c r="E23">
-        <v>9.945706827118828</v>
+        <v>7.181107368289248</v>
       </c>
       <c r="F23">
-        <v>42.84893414643774</v>
+        <v>50.16743161187651</v>
       </c>
       <c r="I23">
-        <v>32.95531864238356</v>
+        <v>32.14929963111465</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.33034164957212</v>
+        <v>7.098474330675223</v>
       </c>
       <c r="M23">
-        <v>17.02539986773143</v>
+        <v>16.35531967649567</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.65292427046247</v>
+        <v>26.20078543008925</v>
       </c>
       <c r="C24">
-        <v>11.02469305892787</v>
+        <v>20.47623783495402</v>
       </c>
       <c r="D24">
-        <v>7.708745416053396</v>
+        <v>5.401013368161609</v>
       </c>
       <c r="E24">
-        <v>9.919821800640527</v>
+        <v>7.065786824268794</v>
       </c>
       <c r="F24">
-        <v>42.09637323287214</v>
+        <v>46.80912521457423</v>
       </c>
       <c r="I24">
-        <v>32.69800553776125</v>
+        <v>30.52667362033402</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.33207389737198</v>
+        <v>6.890376658173669</v>
       </c>
       <c r="M24">
-        <v>16.89274593906384</v>
+        <v>15.03456456030721</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.96284380967248</v>
+        <v>23.50862129466926</v>
       </c>
       <c r="C25">
-        <v>9.994205526450182</v>
+        <v>18.39635661938551</v>
       </c>
       <c r="D25">
-        <v>7.729860346167293</v>
+        <v>5.457038958613219</v>
       </c>
       <c r="E25">
-        <v>9.890927500743702</v>
+        <v>6.945930420757494</v>
       </c>
       <c r="F25">
-        <v>41.31093064449718</v>
+        <v>43.17783587366502</v>
       </c>
       <c r="I25">
-        <v>32.44400619024821</v>
+        <v>28.84072969253657</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.33992475564365</v>
+        <v>6.68146506575194</v>
       </c>
       <c r="M25">
-        <v>16.76346434626922</v>
+        <v>13.52469803061679</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,988 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.38603466663489</v>
+        <v>11.21844668827834</v>
       </c>
       <c r="C2">
-        <v>16.76151731602305</v>
+        <v>10.02622718617085</v>
       </c>
       <c r="D2">
-        <v>5.508548830430912</v>
+        <v>2.545279452853765</v>
       </c>
       <c r="E2">
-        <v>6.859983214555188</v>
+        <v>6.578434613843041</v>
       </c>
       <c r="F2">
-        <v>40.49320999807156</v>
+        <v>44.42374462645715</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.896773139372127</v>
       </c>
       <c r="I2">
-        <v>27.64953985194283</v>
+        <v>4.578428195631923</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>29.74526275576017</v>
       </c>
       <c r="L2">
-        <v>6.540019085375295</v>
+        <v>6.167241710396852</v>
       </c>
       <c r="M2">
-        <v>12.66568629166905</v>
+        <v>10.99493860869342</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.79404109623512</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85549391719229</v>
+        <v>10.47176565608331</v>
       </c>
       <c r="C3">
-        <v>15.58473877754376</v>
+        <v>9.449699363742566</v>
       </c>
       <c r="D3">
-        <v>5.548881492420912</v>
+        <v>2.528015857271925</v>
       </c>
       <c r="E3">
-        <v>6.802531651674237</v>
+        <v>6.25290375342941</v>
       </c>
       <c r="F3">
-        <v>38.66908493569072</v>
+        <v>42.77984671284856</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.183167201878132</v>
       </c>
       <c r="I3">
-        <v>26.87216711528255</v>
+        <v>4.811005614261827</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>28.85061159175264</v>
       </c>
       <c r="L3">
-        <v>6.451471502265278</v>
+        <v>5.979316510440012</v>
       </c>
       <c r="M3">
-        <v>12.10594096590124</v>
+        <v>10.37837661788315</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.32353978184635</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86909413378345</v>
+        <v>9.985431720460177</v>
       </c>
       <c r="C4">
-        <v>14.82699154452777</v>
+        <v>9.086868719986748</v>
       </c>
       <c r="D4">
-        <v>5.576049481637058</v>
+        <v>2.517779706472913</v>
       </c>
       <c r="E4">
-        <v>6.767471300001807</v>
+        <v>6.045548869864402</v>
       </c>
       <c r="F4">
-        <v>37.54844285579374</v>
+        <v>41.73321459237517</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.364894067112671</v>
       </c>
       <c r="I4">
-        <v>26.40938421818636</v>
+        <v>4.958963640424685</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>28.28068636500922</v>
       </c>
       <c r="L4">
-        <v>6.400589633913676</v>
+        <v>5.859814072814254</v>
       </c>
       <c r="M4">
-        <v>11.75973432227972</v>
+        <v>9.997923199096622</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.02625090831548</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.45524303642771</v>
+        <v>9.778124467425762</v>
       </c>
       <c r="C5">
-        <v>14.50918427880523</v>
+        <v>8.9444478554511</v>
       </c>
       <c r="D5">
-        <v>5.587689045979293</v>
+        <v>2.515831512079734</v>
       </c>
       <c r="E5">
-        <v>6.753214795997526</v>
+        <v>5.961443467875299</v>
       </c>
       <c r="F5">
-        <v>37.09197747026035</v>
+        <v>41.26452262445344</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.441010693375767</v>
       </c>
       <c r="I5">
-        <v>26.22443439961901</v>
+        <v>5.023109578583729</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>28.0175976214733</v>
       </c>
       <c r="L5">
-        <v>6.380714955168552</v>
+        <v>5.808884732644944</v>
       </c>
       <c r="M5">
-        <v>11.61817648049249</v>
+        <v>9.841115263798141</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.905293526866176</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.38580141400628</v>
+        <v>9.740737964890171</v>
       </c>
       <c r="C6">
-        <v>14.4558632525667</v>
+        <v>8.929863207654396</v>
       </c>
       <c r="D6">
-        <v>5.589655135532038</v>
+        <v>2.518175770155328</v>
       </c>
       <c r="E6">
-        <v>6.750848746057327</v>
+        <v>5.950113568189983</v>
       </c>
       <c r="F6">
-        <v>37.01620632409066</v>
+        <v>41.14549948678768</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.454415661025079</v>
       </c>
       <c r="I6">
-        <v>26.19394303908208</v>
+        <v>5.037045612677944</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>27.94197124159182</v>
       </c>
       <c r="L6">
-        <v>6.377466240295801</v>
+        <v>5.798884221183244</v>
       </c>
       <c r="M6">
-        <v>11.59464734622094</v>
+        <v>9.816631445200226</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.887747853251648</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.86356110623475</v>
+        <v>9.9758927194897</v>
       </c>
       <c r="C7">
-        <v>14.82274221457587</v>
+        <v>9.109510368106958</v>
       </c>
       <c r="D7">
-        <v>5.576204200288169</v>
+        <v>2.525041973917077</v>
       </c>
       <c r="E7">
-        <v>6.767278935726321</v>
+        <v>6.051788074823538</v>
       </c>
       <c r="F7">
-        <v>37.54228543320965</v>
+        <v>41.61728526029417</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.367740105270705</v>
       </c>
       <c r="I7">
-        <v>26.4068752046904</v>
+        <v>4.968347042907999</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>28.19159933668107</v>
       </c>
       <c r="L7">
-        <v>6.400318136526491</v>
+        <v>5.855127282043052</v>
       </c>
       <c r="M7">
-        <v>11.75782692035922</v>
+        <v>10.00045390101066</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.03175333167507</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86788285665832</v>
+        <v>10.95843700448212</v>
       </c>
       <c r="C8">
-        <v>16.36296446173366</v>
+        <v>9.859557194683173</v>
       </c>
       <c r="D8">
-        <v>5.521933759483947</v>
+        <v>2.54915072334464</v>
       </c>
       <c r="E8">
-        <v>6.840114474786422</v>
+        <v>6.476928595357709</v>
       </c>
       <c r="F8">
-        <v>39.86457039363977</v>
+        <v>43.72640609838951</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.996671266102021</v>
       </c>
       <c r="I8">
-        <v>27.37847431592203</v>
+        <v>4.66844051619681</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>29.33212973436989</v>
       </c>
       <c r="L8">
-        <v>6.508754082832523</v>
+        <v>6.098213831842058</v>
       </c>
       <c r="M8">
-        <v>12.473294890497</v>
+        <v>10.77857982560645</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.64251195268615</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.43662256459036</v>
+        <v>12.67678063491191</v>
       </c>
       <c r="C9">
-        <v>19.11241033109274</v>
+        <v>11.21565375496029</v>
       </c>
       <c r="D9">
-        <v>5.436428338259941</v>
+        <v>2.586174197935783</v>
       </c>
       <c r="E9">
-        <v>6.985851113826821</v>
+        <v>7.238310937724409</v>
       </c>
       <c r="F9">
-        <v>44.40275748724798</v>
+        <v>47.73358442349838</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>3.311055091349449</v>
       </c>
       <c r="I9">
-        <v>29.40059353538975</v>
+        <v>4.105983374678399</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>31.54168321058721</v>
       </c>
       <c r="L9">
-        <v>6.749855429584102</v>
+        <v>6.548450213554114</v>
       </c>
       <c r="M9">
-        <v>14.04528556091243</v>
+        <v>12.42761395078679</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.75699319743029</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.85160493002712</v>
+        <v>13.82632320631014</v>
       </c>
       <c r="C10">
-        <v>20.98031413460413</v>
+        <v>12.11168738519263</v>
       </c>
       <c r="D10">
-        <v>5.389332798700426</v>
+        <v>2.60101038884621</v>
       </c>
       <c r="E10">
-        <v>7.096644101592685</v>
+        <v>7.611149234753391</v>
       </c>
       <c r="F10">
-        <v>47.72095575939631</v>
+        <v>49.93060743143155</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.867908442858704</v>
       </c>
       <c r="I10">
-        <v>30.96170141992796</v>
+        <v>3.730483308512386</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.69977233626049</v>
       </c>
       <c r="L10">
-        <v>6.945580370556312</v>
+        <v>6.764616867568872</v>
       </c>
       <c r="M10">
-        <v>15.39942136996233</v>
+        <v>13.53431012430703</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.44429959266377</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.9088808836174</v>
+        <v>14.49349017872528</v>
       </c>
       <c r="C11">
-        <v>21.80039291243911</v>
+        <v>12.03836583562354</v>
       </c>
       <c r="D11">
-        <v>5.3721209837438</v>
+        <v>2.466350317614819</v>
       </c>
       <c r="E11">
-        <v>7.148383885574333</v>
+        <v>6.548466555953622</v>
       </c>
       <c r="F11">
-        <v>49.22819116492938</v>
+        <v>46.5427203335322</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.575173444489086</v>
       </c>
       <c r="I11">
-        <v>31.68999112772707</v>
+        <v>3.661477496398577</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>30.42334383470002</v>
       </c>
       <c r="L11">
-        <v>7.038987484371721</v>
+        <v>6.131705791272606</v>
       </c>
       <c r="M11">
-        <v>15.99205243658362</v>
+        <v>13.96372121053162</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>12.01760766412496</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.30364978256677</v>
+        <v>14.83633375178364</v>
       </c>
       <c r="C12">
-        <v>22.10699498732811</v>
+        <v>11.75738833979463</v>
       </c>
       <c r="D12">
-        <v>5.366288803967196</v>
+        <v>2.344870444694085</v>
       </c>
       <c r="E12">
-        <v>7.168222358850547</v>
+        <v>5.692422214590602</v>
       </c>
       <c r="F12">
-        <v>49.79889718105881</v>
+        <v>43.3614501765699</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.752484582686981</v>
       </c>
       <c r="I12">
-        <v>31.96859501293682</v>
+        <v>3.659407693443395</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.39147313342994</v>
       </c>
       <c r="L12">
-        <v>7.07502030961861</v>
+        <v>5.670963116634326</v>
       </c>
       <c r="M12">
-        <v>16.21330614640198</v>
+        <v>14.09946598228582</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.49716247440231</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.21887226859485</v>
+        <v>14.95399371121425</v>
       </c>
       <c r="C13">
-        <v>22.04113261498613</v>
+        <v>11.30224643688138</v>
       </c>
       <c r="D13">
-        <v>5.367512972092225</v>
+        <v>2.237790431843006</v>
       </c>
       <c r="E13">
-        <v>7.16393791443473</v>
+        <v>4.997993457314368</v>
       </c>
       <c r="F13">
-        <v>49.67598179204696</v>
+        <v>39.94645946786902</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6.073997051453079</v>
       </c>
       <c r="I13">
-        <v>31.90846335372791</v>
+        <v>3.722650543814391</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.2864716569276</v>
       </c>
       <c r="L13">
-        <v>7.067229972696707</v>
+        <v>5.331251349599281</v>
       </c>
       <c r="M13">
-        <v>16.1657924396003</v>
+        <v>14.0257612193937</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.87047172144965</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94146883090681</v>
+        <v>14.93552080176869</v>
       </c>
       <c r="C14">
-        <v>21.82569431387413</v>
+        <v>10.90348161383548</v>
       </c>
       <c r="D14">
-        <v>5.371626925323374</v>
+        <v>2.172930939782801</v>
       </c>
       <c r="E14">
-        <v>7.150010746695738</v>
+        <v>4.65519833927929</v>
       </c>
       <c r="F14">
-        <v>49.27514243616033</v>
+        <v>37.41085261127849</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7.041512251878168</v>
       </c>
       <c r="I14">
-        <v>31.71285415051608</v>
+        <v>3.798477877102206</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.76316736547177</v>
       </c>
       <c r="L14">
-        <v>7.04193845411663</v>
+        <v>5.180681814750422</v>
       </c>
       <c r="M14">
-        <v>16.01031727454852</v>
+        <v>13.87977803446422</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.37962610959121</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.77083308722544</v>
+        <v>14.88034174543907</v>
       </c>
       <c r="C15">
-        <v>21.69322869939342</v>
+        <v>10.77496124534373</v>
       </c>
       <c r="D15">
-        <v>5.374238702092361</v>
+        <v>2.162217898162949</v>
       </c>
       <c r="E15">
-        <v>7.141513689079789</v>
+        <v>4.589595450587417</v>
       </c>
       <c r="F15">
-        <v>49.0296206550892</v>
+        <v>36.70727014070631</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.273360711155903</v>
       </c>
       <c r="I15">
-        <v>31.59341200808787</v>
+        <v>3.835627238474665</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.34857696980981</v>
       </c>
       <c r="L15">
-        <v>7.026533921148443</v>
+        <v>5.15302224217905</v>
       </c>
       <c r="M15">
-        <v>15.91467866559967</v>
+        <v>13.799586017758</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.23957363279849</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78170633212622</v>
+        <v>14.39761640275871</v>
       </c>
       <c r="C16">
-        <v>20.92614986632618</v>
+        <v>10.46426569744109</v>
       </c>
       <c r="D16">
-        <v>5.390548942107375</v>
+        <v>2.179644703217948</v>
       </c>
       <c r="E16">
-        <v>7.093294078431521</v>
+        <v>4.52202608629708</v>
       </c>
       <c r="F16">
-        <v>47.62242912625641</v>
+        <v>36.26296570934141</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.135609301835292</v>
       </c>
       <c r="I16">
-        <v>30.91448719799761</v>
+        <v>3.987121709097673</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.1731729314367</v>
       </c>
       <c r="L16">
-        <v>6.93956662713399</v>
+        <v>5.11395847508785</v>
       </c>
       <c r="M16">
-        <v>15.36023759908708</v>
+        <v>13.36030220673494</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.05125285291096</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.16455702562248</v>
+        <v>14.02768445755701</v>
       </c>
       <c r="C17">
-        <v>20.44819370433715</v>
+        <v>10.44793210154197</v>
       </c>
       <c r="D17">
-        <v>5.401686664608454</v>
+        <v>2.227639457886335</v>
       </c>
       <c r="E17">
-        <v>7.064091051914733</v>
+        <v>4.625514089477218</v>
       </c>
       <c r="F17">
-        <v>46.75873647964568</v>
+        <v>37.29501722125016</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.497787816319756</v>
       </c>
       <c r="I17">
-        <v>30.50276125088099</v>
+        <v>4.064325777809527</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.85159900471507</v>
       </c>
       <c r="L17">
-        <v>6.887356027707193</v>
+        <v>5.147325523500869</v>
       </c>
       <c r="M17">
-        <v>15.01425311260049</v>
+        <v>13.09704746790477</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.17569882314543</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.80567753793456</v>
+        <v>13.72551264036171</v>
       </c>
       <c r="C18">
-        <v>20.1704747383465</v>
+        <v>10.66075241131998</v>
       </c>
       <c r="D18">
-        <v>5.408483809525812</v>
+        <v>2.30569866551453</v>
       </c>
       <c r="E18">
-        <v>7.047416662574495</v>
+        <v>5.049941400347725</v>
       </c>
       <c r="F18">
-        <v>46.26172851406275</v>
+        <v>39.82067159815993</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.408328060667992</v>
       </c>
       <c r="I18">
-        <v>30.26763807446313</v>
+        <v>4.073754304387173</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>26.43471655748871</v>
       </c>
       <c r="L18">
-        <v>6.857734961443978</v>
+        <v>5.33923454263544</v>
       </c>
       <c r="M18">
-        <v>14.81303888582406</v>
+        <v>12.96034260721012</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.57888525957505</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.6834856343538</v>
+        <v>13.49773493099301</v>
       </c>
       <c r="C19">
-        <v>20.07595202012618</v>
+        <v>11.07230142322379</v>
       </c>
       <c r="D19">
-        <v>5.410850125642575</v>
+        <v>2.42442921774759</v>
       </c>
       <c r="E19">
-        <v>7.041790549927303</v>
+        <v>5.876858096100648</v>
       </c>
       <c r="F19">
-        <v>46.09340404722354</v>
+        <v>43.2103510967283</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.185898321095535</v>
       </c>
       <c r="I19">
-        <v>30.18831449917979</v>
+        <v>4.04011484830299</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>28.53541648080823</v>
       </c>
       <c r="L19">
-        <v>6.847775135111105</v>
+        <v>5.756617007859177</v>
       </c>
       <c r="M19">
-        <v>14.7445254650329</v>
+        <v>12.94421509135453</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.1820083460576</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.23065612308132</v>
+        <v>13.51775975169449</v>
       </c>
       <c r="C20">
-        <v>20.49936173399291</v>
+        <v>11.93655136190036</v>
       </c>
       <c r="D20">
-        <v>5.400460025875693</v>
+        <v>2.621583311063697</v>
       </c>
       <c r="E20">
-        <v>7.067186737472038</v>
+        <v>7.526160506157291</v>
       </c>
       <c r="F20">
-        <v>46.85070086210375</v>
+        <v>49.0537708669013</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.988154177283985</v>
       </c>
       <c r="I20">
-        <v>30.54641390105395</v>
+        <v>3.856442598481109</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>32.15581055557505</v>
       </c>
       <c r="L20">
-        <v>6.892871377164892</v>
+        <v>6.693827708767849</v>
       </c>
       <c r="M20">
-        <v>15.05131144320264</v>
+        <v>13.25843939413224</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>12.28102146126881</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.02309792251832</v>
+        <v>14.33104741395544</v>
       </c>
       <c r="C21">
-        <v>21.88907804966152</v>
+        <v>12.70369338364202</v>
       </c>
       <c r="D21">
-        <v>5.370399253261413</v>
+        <v>2.658079839973097</v>
       </c>
       <c r="E21">
-        <v>7.15409435513333</v>
+        <v>8.032791447665105</v>
       </c>
       <c r="F21">
-        <v>49.39287716194607</v>
+        <v>51.50606114002281</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.602367742605711</v>
       </c>
       <c r="I21">
-        <v>31.7702308721783</v>
+        <v>3.55464970726615</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.54841508567578</v>
       </c>
       <c r="L21">
-        <v>7.049348934084124</v>
+        <v>6.998721205985496</v>
       </c>
       <c r="M21">
-        <v>16.05606823187431</v>
+        <v>14.0786244771955</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.92017890164323</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.16212464752371</v>
+        <v>14.85671206439986</v>
       </c>
       <c r="C22">
-        <v>22.77453039495661</v>
+        <v>13.16590976927684</v>
       </c>
       <c r="D22">
-        <v>5.354795226052285</v>
+        <v>2.662028529192914</v>
       </c>
       <c r="E22">
-        <v>7.212357514021322</v>
+        <v>8.271277075942747</v>
       </c>
       <c r="F22">
-        <v>51.05427412365886</v>
+        <v>52.92654179471177</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.368735005166807</v>
       </c>
       <c r="I22">
-        <v>32.58663130413296</v>
+        <v>3.354144198170145</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.36608713291061</v>
       </c>
       <c r="L22">
-        <v>7.155492813343437</v>
+        <v>7.1511400878689</v>
       </c>
       <c r="M22">
-        <v>16.69441080737365</v>
+        <v>14.5880874818838</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>13.27706667021108</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.55704667788648</v>
+        <v>14.58419975672339</v>
       </c>
       <c r="C23">
-        <v>22.30391773613761</v>
+        <v>12.89973420763317</v>
       </c>
       <c r="D23">
-        <v>5.362723762923752</v>
+        <v>2.650012933644124</v>
       </c>
       <c r="E23">
-        <v>7.181107368289248</v>
+        <v>8.137927002077273</v>
       </c>
       <c r="F23">
-        <v>50.16743161187651</v>
+        <v>52.27712493948212</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.491131000892902</v>
       </c>
       <c r="I23">
-        <v>32.14929963111465</v>
+        <v>3.449470658133623</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>34.01662403082384</v>
       </c>
       <c r="L23">
-        <v>7.098474330675223</v>
+        <v>7.074142102212225</v>
       </c>
       <c r="M23">
-        <v>16.35531967649567</v>
+        <v>14.31558451869459</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>13.08104109835011</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.20078543008925</v>
+        <v>13.49688910134806</v>
       </c>
       <c r="C24">
-        <v>20.47623783495402</v>
+        <v>11.93722992851584</v>
       </c>
       <c r="D24">
-        <v>5.401013368161609</v>
+        <v>2.62098929579208</v>
       </c>
       <c r="E24">
-        <v>7.065786824268794</v>
+        <v>7.629429052350341</v>
       </c>
       <c r="F24">
-        <v>46.80912521457423</v>
+        <v>49.57430089198675</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.965499293377212</v>
       </c>
       <c r="I24">
-        <v>30.52667362033402</v>
+        <v>3.836256526696001</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>32.51732752131874</v>
       </c>
       <c r="L24">
-        <v>6.890376658173669</v>
+        <v>6.768707495994596</v>
       </c>
       <c r="M24">
-        <v>15.03456456030721</v>
+        <v>13.24555555922735</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>12.32853059123865</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50862129466926</v>
+        <v>12.22479544725719</v>
       </c>
       <c r="C25">
-        <v>18.39635661938551</v>
+        <v>10.89483164102844</v>
       </c>
       <c r="D25">
-        <v>5.457038958613219</v>
+        <v>2.590034503844374</v>
       </c>
       <c r="E25">
-        <v>6.945930420757494</v>
+        <v>7.050428764098034</v>
       </c>
       <c r="F25">
-        <v>43.17783587366502</v>
+        <v>46.50782340047613</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3.495014584912611</v>
       </c>
       <c r="I25">
-        <v>28.84072969253657</v>
+        <v>4.269470965071987</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>30.82233566211184</v>
       </c>
       <c r="L25">
-        <v>6.68146506575194</v>
+        <v>6.423671500337792</v>
       </c>
       <c r="M25">
-        <v>13.52469803061679</v>
+        <v>12.00011688609894</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>11.47494205982114</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.21844668827834</v>
+        <v>11.11459691229892</v>
       </c>
       <c r="C2">
-        <v>10.02622718617085</v>
+        <v>11.43238586290199</v>
       </c>
       <c r="D2">
-        <v>2.545279452853765</v>
+        <v>2.991601508927922</v>
       </c>
       <c r="E2">
-        <v>6.578434613843041</v>
+        <v>7.235029844000826</v>
       </c>
       <c r="F2">
-        <v>44.42374462645715</v>
+        <v>38.33793689023933</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.896773139372127</v>
+        <v>3.700252009371324</v>
       </c>
       <c r="I2">
-        <v>4.578428195631923</v>
+        <v>4.226053650202522</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>29.74526275576017</v>
+        <v>24.70845176977836</v>
       </c>
       <c r="L2">
-        <v>6.167241710396852</v>
+        <v>19.08490757166441</v>
       </c>
       <c r="M2">
-        <v>10.99493860869342</v>
+        <v>17.66504880033563</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.088089154921606</v>
       </c>
       <c r="O2">
-        <v>10.79404109623512</v>
+        <v>11.25936306226672</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.19786059954463</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.47176565608331</v>
+        <v>10.41189317002727</v>
       </c>
       <c r="C3">
-        <v>9.449699363742566</v>
+        <v>10.76858225187496</v>
       </c>
       <c r="D3">
-        <v>2.528015857271925</v>
+        <v>2.846703626701358</v>
       </c>
       <c r="E3">
-        <v>6.25290375342941</v>
+        <v>6.885262658066687</v>
       </c>
       <c r="F3">
-        <v>42.77984671284856</v>
+        <v>37.28473912081911</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.183167201878132</v>
+        <v>3.96530425133474</v>
       </c>
       <c r="I3">
-        <v>4.811005614261827</v>
+        <v>4.426921558960053</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>28.85061159175264</v>
+        <v>24.28390176386732</v>
       </c>
       <c r="L3">
-        <v>5.979316510440012</v>
+        <v>18.89156877106515</v>
       </c>
       <c r="M3">
-        <v>10.37837661788315</v>
+        <v>17.24232363398844</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.930115412841283</v>
       </c>
       <c r="O3">
-        <v>10.32353978184635</v>
+        <v>10.52544383433357</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.68873114117064</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.985431720460177</v>
+        <v>9.954525904712547</v>
       </c>
       <c r="C4">
-        <v>9.086868719986748</v>
+        <v>10.35005497732759</v>
       </c>
       <c r="D4">
-        <v>2.517779706472913</v>
+        <v>2.757046103976228</v>
       </c>
       <c r="E4">
-        <v>6.045548869864402</v>
+        <v>6.66248842234678</v>
       </c>
       <c r="F4">
-        <v>41.73321459237517</v>
+        <v>36.6173279663816</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.364894067112671</v>
+        <v>4.133688836053569</v>
       </c>
       <c r="I4">
-        <v>4.958963640424685</v>
+        <v>4.555091779261637</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>28.28068636500922</v>
+        <v>24.01301998681668</v>
       </c>
       <c r="L4">
-        <v>5.859814072814254</v>
+        <v>18.75995537727464</v>
       </c>
       <c r="M4">
-        <v>9.997923199096622</v>
+        <v>16.98930302917045</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.829720195466004</v>
       </c>
       <c r="O4">
-        <v>10.02625090831548</v>
+        <v>10.12167570122983</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.36614169346145</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.778124467425762</v>
+        <v>9.759883893748999</v>
       </c>
       <c r="C5">
-        <v>8.9444478554511</v>
+        <v>10.18299135825912</v>
       </c>
       <c r="D5">
-        <v>2.515831512079734</v>
+        <v>2.724972284022891</v>
       </c>
       <c r="E5">
-        <v>5.961443467875299</v>
+        <v>6.571543010164108</v>
       </c>
       <c r="F5">
-        <v>41.26452262445344</v>
+        <v>36.31438763620615</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.441010693375767</v>
+        <v>4.204202819205438</v>
       </c>
       <c r="I5">
-        <v>5.023109578583729</v>
+        <v>4.611393405935268</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>28.0175976214733</v>
+        <v>23.88077551518386</v>
       </c>
       <c r="L5">
-        <v>5.808884732644944</v>
+        <v>18.6868970594054</v>
       </c>
       <c r="M5">
-        <v>9.841115263798141</v>
+        <v>16.87499098862407</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.787013973281165</v>
       </c>
       <c r="O5">
-        <v>9.905293526866176</v>
+        <v>9.954433256972486</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.23409422780607</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.740737964890171</v>
+        <v>9.725047327193447</v>
       </c>
       <c r="C6">
-        <v>8.929863207654396</v>
+        <v>10.16249430377251</v>
       </c>
       <c r="D6">
-        <v>2.518175770155328</v>
+        <v>2.725270671675211</v>
       </c>
       <c r="E6">
-        <v>5.950113568189983</v>
+        <v>6.558530219947863</v>
       </c>
       <c r="F6">
-        <v>41.14549948678768</v>
+        <v>36.23202418216097</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.454415661025079</v>
+        <v>4.216550166600998</v>
       </c>
       <c r="I6">
-        <v>5.037045612677944</v>
+        <v>4.624430674050838</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>27.94197124159182</v>
+        <v>23.83501751814214</v>
       </c>
       <c r="L6">
-        <v>5.798884221183244</v>
+        <v>18.65483126206524</v>
       </c>
       <c r="M6">
-        <v>9.816631445200226</v>
+        <v>16.84012544573057</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.778708044177032</v>
       </c>
       <c r="O6">
-        <v>9.887747853251648</v>
+        <v>9.927855344296377</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.21420081504017</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.9758927194897</v>
+        <v>9.946263844963944</v>
       </c>
       <c r="C7">
-        <v>9.109510368106958</v>
+        <v>10.36759564111316</v>
       </c>
       <c r="D7">
-        <v>2.525041973917077</v>
+        <v>2.771887110726138</v>
       </c>
       <c r="E7">
-        <v>6.051788074823538</v>
+        <v>6.667197067044496</v>
       </c>
       <c r="F7">
-        <v>41.61728526029417</v>
+        <v>36.52756599726784</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.367740105270705</v>
+        <v>4.13611935455309</v>
       </c>
       <c r="I7">
-        <v>4.968347042907999</v>
+        <v>4.565431193814376</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>28.19159933668107</v>
+        <v>23.94727768619993</v>
       </c>
       <c r="L7">
-        <v>5.855127282043052</v>
+        <v>18.70610846108422</v>
       </c>
       <c r="M7">
-        <v>10.00045390101066</v>
+        <v>16.94389304615994</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.82600731198745</v>
       </c>
       <c r="O7">
-        <v>10.03175333167507</v>
+        <v>10.12321163194724</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.37019466411303</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.95843700448212</v>
+        <v>10.87073125866474</v>
       </c>
       <c r="C8">
-        <v>9.859557194683173</v>
+        <v>11.23030938194423</v>
       </c>
       <c r="D8">
-        <v>2.54915072334464</v>
+        <v>2.961528322650978</v>
       </c>
       <c r="E8">
-        <v>6.476928595357709</v>
+        <v>7.123544859771429</v>
       </c>
       <c r="F8">
-        <v>43.72640609838951</v>
+        <v>37.87066232642838</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.996671266102021</v>
+        <v>3.792372373374542</v>
       </c>
       <c r="I8">
-        <v>4.66844051619681</v>
+        <v>4.306536092823844</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>29.33212973436989</v>
+        <v>24.48244140059814</v>
       </c>
       <c r="L8">
-        <v>6.098213831842058</v>
+        <v>18.95527843293974</v>
       </c>
       <c r="M8">
-        <v>10.77857982560645</v>
+        <v>17.45987846900056</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.030349989581399</v>
       </c>
       <c r="O8">
-        <v>10.64251195268615</v>
+        <v>11.01297427052003</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.03171064694197</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.67678063491191</v>
+        <v>12.48791470544672</v>
       </c>
       <c r="C9">
-        <v>11.21565375496029</v>
+        <v>12.79628670837806</v>
       </c>
       <c r="D9">
-        <v>2.586174197935783</v>
+        <v>3.299681374773471</v>
       </c>
       <c r="E9">
-        <v>7.238310937724409</v>
+        <v>7.943312674269448</v>
       </c>
       <c r="F9">
-        <v>47.73358442349838</v>
+        <v>40.47520482859635</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.311055091349449</v>
+        <v>3.159313967363794</v>
       </c>
       <c r="I9">
-        <v>4.105983374678399</v>
+        <v>3.820597738480604</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>31.54168321058721</v>
+        <v>25.55767958535105</v>
       </c>
       <c r="L9">
-        <v>6.548450213554114</v>
+        <v>19.42891799351602</v>
       </c>
       <c r="M9">
-        <v>12.42761395078679</v>
+        <v>18.59221692466947</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.40893397711538</v>
       </c>
       <c r="O9">
-        <v>11.75699319743029</v>
+        <v>12.71190046524318</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.23488682438237</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.82632320631014</v>
+        <v>13.57617330341687</v>
       </c>
       <c r="C10">
-        <v>12.11168738519263</v>
+        <v>13.81106492090083</v>
       </c>
       <c r="D10">
-        <v>2.60101038884621</v>
+        <v>3.566092846503408</v>
       </c>
       <c r="E10">
-        <v>7.611149234753391</v>
+        <v>8.345246764859441</v>
       </c>
       <c r="F10">
-        <v>49.93060743143155</v>
+        <v>41.85791030898168</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.867908442858704</v>
+        <v>2.752173405074828</v>
       </c>
       <c r="I10">
-        <v>3.730483308512386</v>
+        <v>3.49901911841159</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>32.69977233626049</v>
+        <v>26.05106627644319</v>
       </c>
       <c r="L10">
-        <v>6.764616867568872</v>
+        <v>19.53224455649635</v>
       </c>
       <c r="M10">
-        <v>13.53431012430703</v>
+        <v>19.2526372539791</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.584188462361451</v>
       </c>
       <c r="O10">
-        <v>12.44429959266377</v>
+        <v>13.829910218108</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.97150748685003</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.49349017872528</v>
+        <v>14.26120604128634</v>
       </c>
       <c r="C11">
-        <v>12.03836583562354</v>
+        <v>13.59759283021025</v>
       </c>
       <c r="D11">
-        <v>2.466350317614819</v>
+        <v>3.468536558131357</v>
       </c>
       <c r="E11">
-        <v>6.548466555953622</v>
+        <v>7.206584683645352</v>
       </c>
       <c r="F11">
-        <v>46.5427203335322</v>
+        <v>39.11566511263537</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.575173444489086</v>
+        <v>3.481597096843121</v>
       </c>
       <c r="I11">
-        <v>3.661477496398577</v>
+        <v>3.439060142540709</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>30.42334383470002</v>
+        <v>24.35088109885623</v>
       </c>
       <c r="L11">
-        <v>6.131705791272606</v>
+        <v>18.13482405473767</v>
       </c>
       <c r="M11">
-        <v>13.96372121053162</v>
+        <v>18.09481507422053</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.003366254574479</v>
       </c>
       <c r="O11">
-        <v>12.01760766412496</v>
+        <v>14.24267986415923</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.5048613197073</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.83633375178364</v>
+        <v>14.63066025153472</v>
       </c>
       <c r="C12">
-        <v>11.75738833979463</v>
+        <v>13.17445048906262</v>
       </c>
       <c r="D12">
-        <v>2.344870444694085</v>
+        <v>3.304742503826937</v>
       </c>
       <c r="E12">
-        <v>5.692422214590602</v>
+        <v>6.266954982711449</v>
       </c>
       <c r="F12">
-        <v>43.3614501765699</v>
+        <v>36.62080243635875</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.752484582686981</v>
+        <v>4.676848029291033</v>
       </c>
       <c r="I12">
-        <v>3.659407693443395</v>
+        <v>3.432391196317144</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>28.39147313342994</v>
+        <v>22.91966846436218</v>
       </c>
       <c r="L12">
-        <v>5.670963116634326</v>
+        <v>17.03032906479822</v>
       </c>
       <c r="M12">
-        <v>14.09946598228582</v>
+        <v>17.04428825410599</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.597302088536534</v>
       </c>
       <c r="O12">
-        <v>11.49716247440231</v>
+        <v>14.36202174740355</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.94191717785267</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.95399371121425</v>
+        <v>14.78483707821869</v>
       </c>
       <c r="C13">
-        <v>11.30224643688138</v>
+        <v>12.57298696831383</v>
       </c>
       <c r="D13">
-        <v>2.237790431843006</v>
+        <v>3.100139421221837</v>
       </c>
       <c r="E13">
-        <v>4.997993457314368</v>
+        <v>5.471030496500563</v>
       </c>
       <c r="F13">
-        <v>39.94645946786902</v>
+        <v>34.01385690079627</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.073997051453079</v>
+        <v>6.006955033348282</v>
       </c>
       <c r="I13">
-        <v>3.722650543814391</v>
+        <v>3.48233163912803</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>26.2864716569276</v>
+        <v>21.51096571920631</v>
       </c>
       <c r="L13">
-        <v>5.331251349599281</v>
+        <v>15.99978807589312</v>
       </c>
       <c r="M13">
-        <v>14.0257612193937</v>
+        <v>15.94425469870484</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.316663254457905</v>
       </c>
       <c r="O13">
-        <v>10.87047172144965</v>
+        <v>14.26984659008558</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.26513254361124</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.93552080176869</v>
+        <v>14.79691183290319</v>
       </c>
       <c r="C14">
-        <v>10.90348161383548</v>
+        <v>12.06708185594895</v>
       </c>
       <c r="D14">
-        <v>2.172930939782801</v>
+        <v>2.940794861191513</v>
       </c>
       <c r="E14">
-        <v>4.65519833927929</v>
+        <v>5.045543688740469</v>
       </c>
       <c r="F14">
-        <v>37.41085261127849</v>
+        <v>32.11279125510615</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.041512251878168</v>
+        <v>6.97738825622981</v>
       </c>
       <c r="I14">
-        <v>3.798477877102206</v>
+        <v>3.545604382591642</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>24.76316736547177</v>
+        <v>20.52726405404012</v>
       </c>
       <c r="L14">
-        <v>5.180681814750422</v>
+        <v>15.3010110498941</v>
       </c>
       <c r="M14">
-        <v>13.87977803446422</v>
+        <v>15.14906733220174</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.206798600839047</v>
       </c>
       <c r="O14">
-        <v>10.37962610959121</v>
+        <v>14.10939410410135</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.73474725716348</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.88034174543907</v>
+        <v>14.75165486408832</v>
       </c>
       <c r="C15">
-        <v>10.77496124534373</v>
+        <v>11.91079800952497</v>
       </c>
       <c r="D15">
-        <v>2.162217898162949</v>
+        <v>2.898778391497344</v>
       </c>
       <c r="E15">
-        <v>4.589595450587417</v>
+        <v>4.959448381048864</v>
       </c>
       <c r="F15">
-        <v>36.70727014070631</v>
+        <v>31.59872555497495</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.273360711155903</v>
+        <v>7.208860381272449</v>
       </c>
       <c r="I15">
-        <v>3.835627238474665</v>
+        <v>3.578346459149546</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>24.34857696980981</v>
+        <v>20.27159889798097</v>
       </c>
       <c r="L15">
-        <v>5.15302224217905</v>
+        <v>15.12625622902203</v>
       </c>
       <c r="M15">
-        <v>13.799586017758</v>
+        <v>14.93280109842307</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.189334571055518</v>
       </c>
       <c r="O15">
-        <v>10.23957363279849</v>
+        <v>14.02503666646493</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.5828857961482</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.39761640275871</v>
+        <v>14.2885050920045</v>
       </c>
       <c r="C16">
-        <v>10.46426569744109</v>
+        <v>11.57297498924808</v>
       </c>
       <c r="D16">
-        <v>2.179644703217948</v>
+        <v>2.826843820530662</v>
       </c>
       <c r="E16">
-        <v>4.52202608629708</v>
+        <v>4.903817846047366</v>
       </c>
       <c r="F16">
-        <v>36.26296570934141</v>
+        <v>31.39465324631697</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.135609301835292</v>
+        <v>7.060415657232341</v>
       </c>
       <c r="I16">
-        <v>3.987121709097673</v>
+        <v>3.710696430057386</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>24.1731729314367</v>
+        <v>20.27887317576716</v>
       </c>
       <c r="L16">
-        <v>5.11395847508785</v>
+        <v>15.19928467776285</v>
       </c>
       <c r="M16">
-        <v>13.36030220673494</v>
+        <v>14.84826492496075</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.156905984341379</v>
       </c>
       <c r="O16">
-        <v>10.05125285291096</v>
+        <v>13.58254157760896</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.37943742156561</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.02768445755701</v>
+        <v>13.91714487067761</v>
       </c>
       <c r="C17">
-        <v>10.44793210154197</v>
+        <v>11.59500884928462</v>
       </c>
       <c r="D17">
-        <v>2.227639457886335</v>
+        <v>2.85988890140264</v>
       </c>
       <c r="E17">
-        <v>4.625514089477218</v>
+        <v>5.061030770730116</v>
       </c>
       <c r="F17">
-        <v>37.29501722125016</v>
+        <v>32.26355807263065</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.497787816319756</v>
+        <v>6.410764489260176</v>
       </c>
       <c r="I17">
-        <v>4.064325777809527</v>
+        <v>3.779776464016472</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>24.85159900471507</v>
+        <v>20.80578469041669</v>
       </c>
       <c r="L17">
-        <v>5.147325523500869</v>
+        <v>15.63564511897617</v>
       </c>
       <c r="M17">
-        <v>13.09704746790477</v>
+        <v>15.19936201801163</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.17509140673396</v>
       </c>
       <c r="O17">
-        <v>10.17569882314543</v>
+        <v>13.32503580212248</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.51416535967192</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.72551264036171</v>
+        <v>13.59433553499923</v>
       </c>
       <c r="C18">
-        <v>10.66075241131998</v>
+        <v>11.91603688848096</v>
       </c>
       <c r="D18">
-        <v>2.30569866551453</v>
+        <v>2.974518723422648</v>
       </c>
       <c r="E18">
-        <v>5.049941400347725</v>
+        <v>5.570393712492164</v>
       </c>
       <c r="F18">
-        <v>39.82067159815993</v>
+        <v>34.23770178238622</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.408328060667992</v>
+        <v>5.305548814819126</v>
       </c>
       <c r="I18">
-        <v>4.073754304387173</v>
+        <v>3.788858939622055</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>26.43471655748871</v>
+        <v>21.91156645859065</v>
       </c>
       <c r="L18">
-        <v>5.33923454263544</v>
+        <v>16.49891896415521</v>
       </c>
       <c r="M18">
-        <v>12.96034260721012</v>
+        <v>16.00716842266985</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.327154007502057</v>
       </c>
       <c r="O18">
-        <v>10.57888525957505</v>
+        <v>13.20279617659313</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.9520521494534</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.49773493099301</v>
+        <v>13.33387979133916</v>
       </c>
       <c r="C19">
-        <v>11.07230142322379</v>
+        <v>12.47464641651214</v>
       </c>
       <c r="D19">
-        <v>2.42442921774759</v>
+        <v>3.174704989763883</v>
       </c>
       <c r="E19">
-        <v>5.876858096100648</v>
+        <v>6.485566949036251</v>
       </c>
       <c r="F19">
-        <v>43.2103510967283</v>
+        <v>36.84331208465593</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.185898321095535</v>
+        <v>4.063656758750295</v>
       </c>
       <c r="I19">
-        <v>4.04011484830299</v>
+        <v>3.765234175585036</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>28.53541648080823</v>
+        <v>23.34050769686146</v>
       </c>
       <c r="L19">
-        <v>5.756617007859177</v>
+        <v>17.59700191009018</v>
       </c>
       <c r="M19">
-        <v>12.94421509135453</v>
+        <v>17.07290654636705</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.686803374564526</v>
       </c>
       <c r="O19">
-        <v>11.1820083460576</v>
+        <v>13.20551385813049</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.60449301946827</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.51775975169449</v>
+        <v>13.28630855784082</v>
       </c>
       <c r="C20">
-        <v>11.93655136190036</v>
+        <v>13.59349214442273</v>
       </c>
       <c r="D20">
-        <v>2.621583311063697</v>
+        <v>3.545820369838106</v>
       </c>
       <c r="E20">
-        <v>7.526160506157291</v>
+        <v>8.249199335564382</v>
       </c>
       <c r="F20">
-        <v>49.0537708669013</v>
+        <v>41.25530434840156</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.988154177283985</v>
+        <v>2.861706463290527</v>
       </c>
       <c r="I20">
-        <v>3.856442598481109</v>
+        <v>3.614899488148572</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>32.15581055557505</v>
+        <v>25.73860359684302</v>
       </c>
       <c r="L20">
-        <v>6.693827708767849</v>
+        <v>19.36681282578925</v>
       </c>
       <c r="M20">
-        <v>13.25843939413224</v>
+        <v>18.9390080539468</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.526739186997367</v>
       </c>
       <c r="O20">
-        <v>12.28102146126881</v>
+        <v>13.54999651297724</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.79207261367673</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.33104741395544</v>
+        <v>14.04626391547446</v>
       </c>
       <c r="C21">
-        <v>12.70369338364202</v>
+        <v>14.46167669111655</v>
       </c>
       <c r="D21">
-        <v>2.658079839973097</v>
+        <v>3.777033371333821</v>
       </c>
       <c r="E21">
-        <v>8.032791447665105</v>
+        <v>8.791738364214043</v>
       </c>
       <c r="F21">
-        <v>51.50606114002281</v>
+        <v>42.92171116436608</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.602367742605711</v>
+        <v>2.506434193224337</v>
       </c>
       <c r="I21">
-        <v>3.55464970726615</v>
+        <v>3.357074226354764</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>33.54841508567578</v>
+        <v>26.4756199929715</v>
       </c>
       <c r="L21">
-        <v>6.998721205985496</v>
+        <v>19.71508261640753</v>
       </c>
       <c r="M21">
-        <v>14.0786244771955</v>
+        <v>19.72733440096114</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.788829397499807</v>
       </c>
       <c r="O21">
-        <v>12.92017890164323</v>
+        <v>14.38153939834441</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.47798304582381</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.85671206439986</v>
+        <v>14.53960328042611</v>
       </c>
       <c r="C22">
-        <v>13.16590976927684</v>
+        <v>14.95701944305151</v>
       </c>
       <c r="D22">
-        <v>2.662028529192914</v>
+        <v>3.89183748972103</v>
       </c>
       <c r="E22">
-        <v>8.271277075942747</v>
+        <v>9.049317908447247</v>
       </c>
       <c r="F22">
-        <v>52.92654179471177</v>
+        <v>43.88217860658141</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.368735005166807</v>
+        <v>2.29234498618217</v>
       </c>
       <c r="I22">
-        <v>3.354144198170145</v>
+        <v>3.182438799296498</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>34.36608713291061</v>
+        <v>26.90655603372627</v>
       </c>
       <c r="L22">
-        <v>7.1511400878689</v>
+        <v>19.89993739692053</v>
       </c>
       <c r="M22">
-        <v>14.5880874818838</v>
+        <v>20.2119407781471</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.916913180794886</v>
       </c>
       <c r="O22">
-        <v>13.27706667021108</v>
+        <v>14.89675441516215</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.8615353115561</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58419975672339</v>
+        <v>14.28321742742414</v>
       </c>
       <c r="C23">
-        <v>12.89973420763317</v>
+        <v>14.67655994002631</v>
       </c>
       <c r="D23">
-        <v>2.650012933644124</v>
+        <v>3.812747256356595</v>
       </c>
       <c r="E23">
-        <v>8.137927002077273</v>
+        <v>8.907059973653785</v>
       </c>
       <c r="F23">
-        <v>52.27712493948212</v>
+        <v>43.45475535482626</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.491131000892902</v>
+        <v>2.40476827087729</v>
       </c>
       <c r="I23">
-        <v>3.449470658133623</v>
+        <v>3.262264786525196</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>34.01662403082384</v>
+        <v>26.74212715366482</v>
       </c>
       <c r="L23">
-        <v>7.074142102212225</v>
+        <v>19.85054615644604</v>
       </c>
       <c r="M23">
-        <v>14.31558451869459</v>
+        <v>20.00270143760469</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.851938346000078</v>
       </c>
       <c r="O23">
-        <v>13.08104109835011</v>
+        <v>14.62166872343866</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.65264990031622</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.49688910134806</v>
+        <v>13.2607313045498</v>
       </c>
       <c r="C24">
-        <v>11.93722992851584</v>
+        <v>13.61497692515233</v>
       </c>
       <c r="D24">
-        <v>2.62098929579208</v>
+        <v>3.535321196883581</v>
       </c>
       <c r="E24">
-        <v>7.629429052350341</v>
+        <v>8.361072433123288</v>
       </c>
       <c r="F24">
-        <v>49.57430089198675</v>
+        <v>41.6627202241048</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.965499293377212</v>
+        <v>2.840663829885907</v>
       </c>
       <c r="I24">
-        <v>3.836256526696001</v>
+        <v>3.59309373139261</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>32.51732752131874</v>
+        <v>25.99992931265921</v>
       </c>
       <c r="L24">
-        <v>6.768707495994596</v>
+        <v>19.56895116209681</v>
       </c>
       <c r="M24">
-        <v>13.24555555922735</v>
+        <v>19.13192476564116</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.594734691645596</v>
       </c>
       <c r="O24">
-        <v>12.32853059123865</v>
+        <v>13.53952824459108</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.84633831091998</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.22479544725719</v>
+        <v>12.06361261545645</v>
       </c>
       <c r="C25">
-        <v>10.89483164102844</v>
+        <v>12.41386617123692</v>
       </c>
       <c r="D25">
-        <v>2.590034503844374</v>
+        <v>3.23510906045008</v>
       </c>
       <c r="E25">
-        <v>7.050428764098034</v>
+        <v>7.738151490496698</v>
       </c>
       <c r="F25">
-        <v>46.50782340047613</v>
+        <v>39.65075706141882</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.495014584912611</v>
+        <v>3.328534589864724</v>
       </c>
       <c r="I25">
-        <v>4.269470965071987</v>
+        <v>3.965660344592262</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>30.82233566211184</v>
+        <v>25.16955339026349</v>
       </c>
       <c r="L25">
-        <v>6.423671500337792</v>
+        <v>19.2288515056267</v>
       </c>
       <c r="M25">
-        <v>12.00011688609894</v>
+        <v>18.20428142646049</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.30436756434099</v>
       </c>
       <c r="O25">
-        <v>11.47494205982114</v>
+        <v>12.27771143943694</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>11.92820273369426</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
